--- a/indigo/spreadsheetform_guides/project.xlsx
+++ b/indigo/spreadsheetform_guides/project.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t xml:space="preserve">Record Status</t>
   </si>
@@ -123,6 +123,18 @@
   </si>
   <si>
     <t xml:space="preserve">Outcome Payments (£)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcomes:title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcomes:definition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not in use yet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcomes:source</t>
   </si>
 </sst>
 </file>
@@ -281,7 +293,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -365,15 +377,15 @@
   <dimension ref="A2:D15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="40.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.62"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -500,10 +512,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:L17"/>
+  <dimension ref="A3:M17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+      <selection pane="topLeft" activeCell="J27" activeCellId="0" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -511,9 +523,9 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.78"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.04"/>
@@ -542,6 +554,7 @@
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
+      <c r="M3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
@@ -580,20 +593,50 @@
       <c r="L4" s="6" t="s">
         <v>33</v>
       </c>
+      <c r="M4" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
+      <c r="A5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9"/>
@@ -608,6 +651,7 @@
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9"/>
@@ -622,6 +666,7 @@
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9"/>
@@ -636,6 +681,7 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9"/>
@@ -650,6 +696,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9"/>
@@ -664,6 +711,7 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9"/>
@@ -678,6 +726,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9"/>
@@ -692,6 +741,7 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9"/>
@@ -706,6 +756,7 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9"/>
@@ -720,6 +771,7 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9"/>
@@ -734,6 +786,7 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9"/>
@@ -748,6 +801,7 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9"/>
@@ -762,6 +816,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/indigo/spreadsheetform_guides/project.xlsx
+++ b/indigo/spreadsheetform_guides/project.xlsx
@@ -10,6 +10,7 @@
   <sheets>
     <sheet name="General Overview" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Outcomes" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Outcome Fund" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t xml:space="preserve">Record Status</t>
   </si>
@@ -135,6 +136,39 @@
   </si>
   <si>
     <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcomes:source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:organisation/id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:organisation/name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:organisation/type</t>
   </si>
 </sst>
 </file>
@@ -256,7 +290,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -295,6 +329,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -377,7 +415,7 @@
   <dimension ref="A2:D15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -515,7 +553,7 @@
   <dimension ref="A3:M17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J27" activeCellId="0" sqref="J27"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -833,4 +871,169 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A3:E17"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.83"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/indigo/spreadsheetform_guides/project.xlsx
+++ b/indigo/spreadsheetform_guides/project.xlsx
@@ -67,7 +67,7 @@
     <t xml:space="preserve">Impact Bond Name</t>
   </si>
   <si>
-    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:name</t>
+    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:name/value</t>
   </si>
   <si>
     <t xml:space="preserve">Alternative Names</t>
@@ -76,7 +76,7 @@
     <t xml:space="preserve">(comma sep)</t>
   </si>
   <si>
-    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:alternative_names</t>
+    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:alternative_names/value</t>
   </si>
   <si>
     <t xml:space="preserve">Stage of Development</t>
@@ -1541,7 +1541,7 @@
   <dimension ref="A2:F79"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1601,7 +1601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -2337,7 +2337,7 @@
   <dimension ref="A3:M39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
+      <selection pane="topLeft" activeCell="K11" activeCellId="1" sqref="C10:C11 K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2938,7 +2938,7 @@
   <dimension ref="A5:N38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
+      <selection pane="topLeft" activeCell="K9" activeCellId="1" sqref="C10:C11 K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3569,7 +3569,7 @@
   <dimension ref="A2:D32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="C10:C11 B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3804,7 +3804,7 @@
   <dimension ref="A2:D32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O25" activeCellId="0" sqref="O25"/>
+      <selection pane="topLeft" activeCell="O25" activeCellId="1" sqref="C10:C11 O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4038,7 +4038,7 @@
   <dimension ref="A2:I33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K16" activeCellId="0" sqref="K16"/>
+      <selection pane="topLeft" activeCell="K16" activeCellId="1" sqref="C10:C11 K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4469,7 +4469,7 @@
   <dimension ref="A2:J32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="1" sqref="C10:C11 H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4928,7 +4928,7 @@
   <dimension ref="A2:I36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
+      <selection pane="topLeft" activeCell="I8" activeCellId="1" sqref="C10:C11 I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5361,7 +5361,7 @@
   <dimension ref="A7:J37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5811,7 +5811,7 @@
   <dimension ref="A2:M37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
+      <selection pane="topLeft" activeCell="H16" activeCellId="1" sqref="C10:C11 H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6404,7 +6404,7 @@
   <dimension ref="A2:N39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L11" activeCellId="0" sqref="L11"/>
+      <selection pane="topLeft" activeCell="L11" activeCellId="1" sqref="C10:C11 L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7045,7 +7045,7 @@
   <dimension ref="A3:N46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
+      <selection pane="topLeft" activeCell="G29" activeCellId="1" sqref="C10:C11 G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7738,7 +7738,7 @@
   <dimension ref="A2:F41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="1" sqref="C10:C11 A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/indigo/spreadsheetform_guides/project.xlsx
+++ b/indigo/spreadsheetform_guides/project.xlsx
@@ -235,7 +235,7 @@
     <t xml:space="preserve">Maximum potential loss</t>
   </si>
   <si>
-    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/maximum_potential_loss /value</t>
+    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/maximum_potential_loss/value</t>
   </si>
   <si>
     <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/maximum_potential_loss/status</t>
@@ -1540,8 +1540,8 @@
   </sheetPr>
   <dimension ref="A2:F79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10:C11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2337,7 +2337,7 @@
   <dimension ref="A3:M39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K11" activeCellId="1" sqref="C10:C11 K11"/>
+      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2938,7 +2938,7 @@
   <dimension ref="A5:N38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K9" activeCellId="1" sqref="C10:C11 K9"/>
+      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3569,7 +3569,7 @@
   <dimension ref="A2:D32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="C10:C11 B4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3804,7 +3804,7 @@
   <dimension ref="A2:D32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O25" activeCellId="1" sqref="C10:C11 O25"/>
+      <selection pane="topLeft" activeCell="O25" activeCellId="0" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4038,7 +4038,7 @@
   <dimension ref="A2:I33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K16" activeCellId="1" sqref="C10:C11 K16"/>
+      <selection pane="topLeft" activeCell="K16" activeCellId="0" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4469,7 +4469,7 @@
   <dimension ref="A2:J32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="1" sqref="C10:C11 H3"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4928,7 +4928,7 @@
   <dimension ref="A2:I36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I8" activeCellId="1" sqref="C10:C11 I8"/>
+      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5361,7 +5361,7 @@
   <dimension ref="A7:J37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10:C11"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5811,7 +5811,7 @@
   <dimension ref="A2:M37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H16" activeCellId="1" sqref="C10:C11 H16"/>
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6404,7 +6404,7 @@
   <dimension ref="A2:N39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L11" activeCellId="1" sqref="C10:C11 L11"/>
+      <selection pane="topLeft" activeCell="L11" activeCellId="0" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7045,7 +7045,7 @@
   <dimension ref="A3:N46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G29" activeCellId="1" sqref="C10:C11 G29"/>
+      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7738,7 +7738,7 @@
   <dimension ref="A2:F41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="1" sqref="C10:C11 A13"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/indigo/spreadsheetform_guides/project.xlsx
+++ b/indigo/spreadsheetform_guides/project.xlsx
@@ -514,19 +514,19 @@
     <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:id</t>
   </si>
   <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:identifier_scheme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:organisation_ids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:country</t>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:name/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:identifier_scheme/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:identifier/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:organisation_ids/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:country/value</t>
   </si>
   <si>
     <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:source_ids</t>
@@ -749,7 +749,7 @@
     <t xml:space="preserve">SPREADSHEETFORM:DOWN:service_provisions:organisation_role_category/value</t>
   </si>
   <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:service_provisions:intervention /value</t>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:service_provisions:intervention/value</t>
   </si>
   <si>
     <t xml:space="preserve">SPREADSHEETFORM:DOWN:service_provisions:planned_service/start_date/value</t>
@@ -1540,8 +1540,8 @@
   </sheetPr>
   <dimension ref="A2:F79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2938,7 +2938,7 @@
   <dimension ref="A5:N38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3804,7 +3804,7 @@
   <dimension ref="A2:D32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O25" activeCellId="0" sqref="O25"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4038,7 +4038,7 @@
   <dimension ref="A2:I33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K16" activeCellId="0" sqref="K16"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4469,7 +4469,7 @@
   <dimension ref="A2:J32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5811,7 +5811,7 @@
   <dimension ref="A2:M37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6404,7 +6404,7 @@
   <dimension ref="A2:N39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L11" activeCellId="0" sqref="L11"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7045,7 +7045,7 @@
   <dimension ref="A3:N46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/indigo/spreadsheetform_guides/project.xlsx
+++ b/indigo/spreadsheetform_guides/project.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="420">
   <si>
     <t xml:space="preserve">Indigo Project ID</t>
   </si>
@@ -205,91 +205,133 @@
     <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/total_investment_commitment/currency/status</t>
   </si>
   <si>
+    <t xml:space="preserve">(min amount)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/total_investment_commitment/amount/min/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/total_investment_commitment/amount/min/status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(exact amount)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/total_investment_commitment/amount/exact/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/total_investment_commitment/amount/exact/status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(max amount)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/total_investment_commitment/amount/max/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/total_investment_commitment/amount/max/status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(min in USD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/total_investment_commitment/amount_usd/min/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/total_investment_commitment/amount_usd/min/status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(exact in USD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/total_investment_commitment/amount_usd/exact/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/total_investment_commitment/amount_usd/exact/status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(max in USD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/total_investment_commitment/amount_usd/max/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/total_investment_commitment/amount_usd/max/status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum potential outcome payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/maximum_potential_outcome_payment/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/maximum_potential_outcome_payment/status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum potential loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/maximum_potential_loss/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/maximum_potential_loss/status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum potential return type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/maximum_potential_return_type/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/maximum_potential_return_type/status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum potential return</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/maximum_potential_return/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/maximum_potential_return/status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configuration of the Contracting Parties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/configuration_contracting_parties/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/configuration_contracting_parties/status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investor repayment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/investor_repayment/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/investor_repayment/status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total outcome payments made</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/total_outcome_payments_made/currency/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/total_outcome_payments_made/currency/status</t>
+  </si>
+  <si>
     <t xml:space="preserve">(amount)</t>
   </si>
   <si>
-    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/total_investment_commitment/amount/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/total_investment_commitment/amount/status</t>
+    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/total_outcome_payments_made/amount/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/total_outcome_payments_made/amount/status</t>
   </si>
   <si>
     <t xml:space="preserve">(amount in USD)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/total_investment_commitment/amount_usd/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/total_investment_commitment/amount_usd/status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum potential outcome payment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/maximum_potential_outcome_payment/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/maximum_potential_outcome_payment/status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum potential loss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/maximum_potential_loss/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/maximum_potential_loss/status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum potential return type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/maximum_potential_return_type/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/maximum_potential_return_type/status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum potential return</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/maximum_potential_return/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/maximum_potential_return/status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Configuration of the Contracting Parties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/configuration_contracting_parties/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/configuration_contracting_parties/status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Investor repayment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/investor_repayment/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/investor_repayment/status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total outcome payments made</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/total_outcome_payments_made/currency/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/total_outcome_payments_made/currency/status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/total_outcome_payments_made/amount/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/total_outcome_payments_made/amount/status</t>
   </si>
   <si>
     <t xml:space="preserve">SPREADSHEETFORM:SINGLE:overall_project_finance/total_outcome_payments_made/amount_usd/value</t>
@@ -921,6 +963,24 @@
     <t xml:space="preserve">Misc</t>
   </si>
   <si>
+    <t xml:space="preserve">Min Amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exact Amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min in USD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exact in USD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max in USD</t>
+  </si>
+  <si>
     <t xml:space="preserve">Loss</t>
   </si>
   <si>
@@ -950,10 +1010,22 @@
     <t xml:space="preserve">SPREADSHEETFORM:DOWN:investments:investment_commitment/currency/value</t>
   </si>
   <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:investments:investment_commitment/amount/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:investments:investment_commitment/amount_usd/value</t>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:investments:investment_commitment/amount/min/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:investments:investment_commitment/amount/exact/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:investments:investment_commitment/amount/max/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:investments:investment_commitment/amount_usd/min/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:investments:investment_commitment/amount_usd/exact/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:investments:investment_commitment/amount_usd/max/value</t>
   </si>
   <si>
     <t xml:space="preserve">SPREADSHEETFORM:DOWN:investments:maximum_potential_loss/value</t>
@@ -1538,10 +1610,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:F79"/>
+  <dimension ref="A2:F83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1852,10 +1924,10 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="3"/>
       <c r="C36" s="6" t="s">
         <v>64</v>
       </c>
@@ -1863,11 +1935,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
+    <row r="37" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="3"/>
       <c r="C37" s="6" t="s">
         <v>67</v>
       </c>
@@ -1876,10 +1948,10 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="3"/>
       <c r="C38" s="6" t="s">
         <v>70</v>
       </c>
@@ -1887,11 +1959,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
+    <row r="39" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="3"/>
       <c r="C39" s="6" t="s">
         <v>73</v>
       </c>
@@ -1927,9 +1999,7 @@
       <c r="A42" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B42" s="3"/>
       <c r="C42" s="6" t="s">
         <v>82</v>
       </c>
@@ -1937,136 +2007,150 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3" t="s">
-        <v>57</v>
-      </c>
+    <row r="43" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="3"/>
       <c r="C43" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="A44" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="3"/>
       <c r="C44" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D45" s="6"/>
-    </row>
-    <row r="46" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>91</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="3"/>
+        <v>93</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="C46" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>102</v>
+      </c>
+      <c r="D49" s="6"/>
+    </row>
+    <row r="50" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E50" s="7"/>
-    </row>
-    <row r="51" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>100</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="D50" s="6"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3"/>
+      <c r="A52" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="B52" s="3"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3"/>
+      <c r="C52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="B53" s="3"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3"/>
+      <c r="C53" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="B54" s="3"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3"/>
+      <c r="C54" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E54" s="7"/>
+    </row>
+    <row r="55" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="B55" s="3"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
+      <c r="C55" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="E55" s="7" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2075,16 +2159,16 @@
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="7" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2093,231 +2177,267 @@
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="s">
-        <v>108</v>
-      </c>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3"/>
       <c r="B59" s="3"/>
-      <c r="C59" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="s">
-        <v>112</v>
-      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3"/>
       <c r="B60" s="3"/>
-      <c r="C60" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E60" s="0" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="s">
-        <v>116</v>
-      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3"/>
       <c r="B61" s="3"/>
-      <c r="C61" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="s">
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="7" t="s">
         <v>120</v>
       </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3"/>
       <c r="B62" s="3"/>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D62" s="6" t="s">
+    </row>
+    <row r="63" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D63" s="6"/>
-    </row>
-    <row r="64" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D63" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D64" s="6"/>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>127</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B66" s="3"/>
-      <c r="C66" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C66" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>137</v>
+      </c>
+      <c r="D67" s="6"/>
+    </row>
+    <row r="68" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B69" s="3"/>
-      <c r="C69" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>135</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="D68" s="6"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3"/>
+      <c r="A70" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="B70" s="3"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C70" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D72" s="6"/>
-    </row>
-    <row r="73" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>144</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D73" s="6"/>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>147</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B75" s="3"/>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76" s="3"/>
+      <c r="C76" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D76" s="6"/>
+    </row>
+    <row r="77" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B77" s="3"/>
+      <c r="C77" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D77" s="6"/>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D79" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E79" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F77" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F78" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F79" s="7" t="s">
-        <v>149</v>
+    <row r="80" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F81" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F82" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F83" s="7" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E59" r:id="rId1" display="https://github.com/datapopalliance/SDGs/blob/master/SDG-goals.csv "/>
-    <hyperlink ref="E61" r:id="rId2" display="https://github.com/datapopalliance/SDGs/blob/master/SDG-targets.csv"/>
+    <hyperlink ref="E63" r:id="rId1" display="https://github.com/datapopalliance/SDGs/blob/master/SDG-goals.csv "/>
+    <hyperlink ref="E65" r:id="rId2" display="https://github.com/datapopalliance/SDGs/blob/master/SDG-targets.csv"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2357,44 +2477,44 @@
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I3" s="7" t="s">
-        <v>329</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I4" s="7" t="s">
-        <v>330</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I5" s="7" t="s">
-        <v>331</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I6" s="7" t="s">
-        <v>332</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E7" s="7" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>334</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E8" s="7" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2409,44 +2529,44 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>339</v>
+        <v>363</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>340</v>
+        <v>364</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>341</v>
+        <v>365</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>343</v>
+        <v>367</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>50</v>
@@ -2457,43 +2577,43 @@
     </row>
     <row r="11" customFormat="false" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="s">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>349</v>
+        <v>373</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>357</v>
+        <v>381</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2959,18 +3079,18 @@
   <sheetData>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="7" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="7" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2986,47 +3106,47 @@
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="3" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>50</v>
@@ -3046,10 +3166,10 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="12" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="L9" s="12"/>
       <c r="M9" s="3"/>
@@ -3057,46 +3177,46 @@
     </row>
     <row r="10" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="s">
-        <v>372</v>
+        <v>396</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>374</v>
+        <v>398</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>382</v>
+        <v>406</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>385</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3581,17 +3701,17 @@
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>50</v>
@@ -3602,16 +3722,16 @@
     </row>
     <row r="4" customFormat="false" ht="100.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3815,17 +3935,17 @@
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>50</v>
@@ -3836,16 +3956,16 @@
     </row>
     <row r="4" customFormat="false" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>395</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4063,32 +4183,32 @@
       <c r="E2" s="12"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>50</v>
@@ -4103,7 +4223,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="12" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="12"/>
@@ -4112,31 +4232,31 @@
     </row>
     <row r="5" customFormat="false" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4489,45 +4609,45 @@
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="12"/>
       <c r="B2" s="3" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>171</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>157</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>50</v>
@@ -4538,34 +4658,34 @@
     </row>
     <row r="4" customFormat="false" ht="129.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4945,51 +5065,51 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="0" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4997,7 +5117,7 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -5007,31 +5127,31 @@
     </row>
     <row r="8" customFormat="false" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="15" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5371,19 +5491,19 @@
   <sheetData>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -5392,63 +5512,63 @@
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="12"/>
       <c r="B8" s="3" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="114.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="14" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5831,27 +5951,27 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="7" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="7" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="7" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="7" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="7" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5860,56 +5980,56 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>50</v>
@@ -5920,43 +6040,43 @@
     </row>
     <row r="9" customFormat="false" ht="114.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6424,43 +6544,43 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="7" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="7" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="7" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="7" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="7" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="7" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6471,56 +6591,56 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>50</v>
@@ -6531,46 +6651,46 @@
     </row>
     <row r="11" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="14" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7042,10 +7162,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:N46"/>
+  <dimension ref="A3:R46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7054,103 +7174,104 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.04"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="22.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="19.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.56"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="20.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="7" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="7" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="7" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="7" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="7" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="7" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="7" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="7" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>281</v>
+        <v>294</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>283</v>
+        <v>296</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>285</v>
+        <v>298</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>288</v>
+        <v>300</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>291</v>
+        <v>150</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7158,111 +7279,139 @@
       <c r="B16" s="12"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
-        <v>293</v>
-      </c>
+      <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3" t="s">
-        <v>150</v>
-      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-    </row>
-    <row r="17" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N16" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>259</v>
+        <v>309</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>296</v>
+        <v>311</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>312</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="J17" s="16" t="s">
-        <v>298</v>
+        <v>313</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>314</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="L17" s="12" t="s">
-        <v>157</v>
+        <v>315</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>316</v>
       </c>
       <c r="M17" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="N17" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="R17" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="114.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>311</v>
+        <v>330</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>313</v>
+        <v>333</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="P18" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7277,9 +7426,13 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="14"/>
+      <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="13"/>
@@ -7293,9 +7446,13 @@
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="14"/>
+      <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13"/>
@@ -7309,9 +7466,13 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="14"/>
+      <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13"/>
@@ -7325,9 +7486,13 @@
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
-      <c r="L22" s="14"/>
+      <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13"/>
@@ -7341,9 +7506,13 @@
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="14"/>
+      <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13"/>
@@ -7357,9 +7526,13 @@
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
-      <c r="L24" s="14"/>
+      <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13"/>
@@ -7373,9 +7546,13 @@
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
-      <c r="L25" s="14"/>
+      <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="13"/>
@@ -7389,9 +7566,13 @@
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
-      <c r="L26" s="14"/>
+      <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="13"/>
@@ -7405,9 +7586,13 @@
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
-      <c r="L27" s="14"/>
+      <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="13"/>
@@ -7421,9 +7606,13 @@
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
-      <c r="L28" s="14"/>
+      <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="13"/>
@@ -7437,9 +7626,13 @@
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
-      <c r="L29" s="14"/>
+      <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="13"/>
@@ -7453,9 +7646,13 @@
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
-      <c r="L30" s="14"/>
+      <c r="L30" s="6"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="13"/>
@@ -7469,9 +7666,13 @@
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
-      <c r="L31" s="14"/>
+      <c r="L31" s="6"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="13"/>
@@ -7485,9 +7686,13 @@
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
-      <c r="L32" s="14"/>
+      <c r="L32" s="6"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="13"/>
@@ -7501,9 +7706,13 @@
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
-      <c r="L33" s="14"/>
+      <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="13"/>
@@ -7517,9 +7726,13 @@
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
-      <c r="L34" s="14"/>
+      <c r="L34" s="6"/>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="13"/>
@@ -7533,9 +7746,13 @@
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
-      <c r="L35" s="14"/>
+      <c r="L35" s="6"/>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="13"/>
@@ -7549,9 +7766,13 @@
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
-      <c r="L36" s="14"/>
+      <c r="L36" s="6"/>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="13"/>
@@ -7565,9 +7786,13 @@
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
-      <c r="L37" s="14"/>
+      <c r="L37" s="6"/>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="13"/>
@@ -7581,9 +7806,13 @@
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
-      <c r="L38" s="14"/>
+      <c r="L38" s="6"/>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="13"/>
@@ -7597,9 +7826,13 @@
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
-      <c r="L39" s="14"/>
+      <c r="L39" s="6"/>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="13"/>
@@ -7613,9 +7846,13 @@
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
-      <c r="L40" s="14"/>
+      <c r="L40" s="6"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="13"/>
@@ -7629,9 +7866,13 @@
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
-      <c r="L41" s="14"/>
+      <c r="L41" s="6"/>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="13"/>
@@ -7645,9 +7886,13 @@
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
-      <c r="L42" s="14"/>
+      <c r="L42" s="6"/>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="13"/>
@@ -7661,9 +7906,13 @@
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
-      <c r="L43" s="14"/>
+      <c r="L43" s="6"/>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="13"/>
@@ -7677,9 +7926,13 @@
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
-      <c r="L44" s="14"/>
+      <c r="L44" s="6"/>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="13"/>
@@ -7693,9 +7946,13 @@
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
-      <c r="L45" s="14"/>
+      <c r="L45" s="6"/>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="13"/>
@@ -7709,16 +7966,20 @@
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
-      <c r="L46" s="14"/>
+      <c r="L46" s="6"/>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:R16"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -7754,47 +8015,47 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="7" t="s">
-        <v>315</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="7" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="7" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="7" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="7" t="s">
-        <v>319</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="7" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="7" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="7" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7802,23 +8063,23 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>322</v>
+        <v>346</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>50</v>
@@ -7829,22 +8090,22 @@
     </row>
     <row r="13" customFormat="false" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="14" t="s">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>327</v>
+        <v>351</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/indigo/spreadsheetform_guides/project.xlsx
+++ b/indigo/spreadsheetform_guides/project.xlsx
@@ -556,19 +556,19 @@
     <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:id</t>
   </si>
   <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:name/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:identifier_scheme/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:identifier/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:organisation_ids/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:country/value</t>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:fund/name/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:fund/identifier_scheme/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:fund/identifier/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:fund/organisation_ids/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:fund/country/value</t>
   </si>
   <si>
     <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:source_ids</t>
@@ -4158,7 +4158,7 @@
   <dimension ref="A2:I33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4230,7 +4230,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="100.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="s">
         <v>173</v>
       </c>

--- a/indigo/spreadsheetform_guides/project.xlsx
+++ b/indigo/spreadsheetform_guides/project.xlsx
@@ -1185,7 +1185,7 @@
     <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_metrics:outcome_validation_method/value</t>
   </si>
   <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_metrics:data_source_for _outcome_validation/value</t>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_metrics:data_source_for_outcome_validation/value</t>
   </si>
   <si>
     <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_metrics:source_ids</t>
@@ -2456,8 +2456,8 @@
   </sheetPr>
   <dimension ref="A3:M39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/indigo/spreadsheetform_guides/project.xlsx
+++ b/indigo/spreadsheetform_guides/project.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="427">
   <si>
     <t xml:space="preserve">Indigo Project ID</t>
   </si>
@@ -524,6 +524,12 @@
   </si>
   <si>
     <t xml:space="preserve">Switch to grant payments based on medium scenarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:notes/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:notes/status</t>
   </si>
   <si>
     <t xml:space="preserve">Meta</t>
@@ -836,11 +842,19 @@
     <t xml:space="preserve">Overall</t>
   </si>
   <si>
+    <t xml:space="preserve">Maximum potential Outcome payment</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alterations to payment commitment</t>
   </si>
   <si>
-    <t xml:space="preserve">Maximum potential
- Outcome payment</t>
+    <t xml:space="preserve">Currency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount in USD</t>
   </si>
   <si>
     <t xml:space="preserve">Result type</t>
@@ -852,22 +866,19 @@
     <t xml:space="preserve">Period end</t>
   </si>
   <si>
-    <t xml:space="preserve">Currency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amount in USD</t>
-  </si>
-  <si>
     <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_payment_commitments:organisation_id/value</t>
   </si>
   <si>
     <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_payment_commitments:organisation_role_category/value</t>
   </si>
   <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_payment_commitments:maximum_potential_outcome_payment/value</t>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_payment_commitments:maximum_potential_outcome_payment/currency/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_payment_commitments:maximum_potential_outcome_payment/amount/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_payment_commitments:maximum_potential_outcome_payment/amount_usd/value</t>
   </si>
   <si>
     <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_payment_commitments:result_type/value</t>
@@ -936,6 +947,9 @@
     <t xml:space="preserve">Principal repaid (but no net return)</t>
   </si>
   <si>
+    <t xml:space="preserve">Debt</t>
+  </si>
+  <si>
     <t xml:space="preserve">Asset Manager</t>
   </si>
   <si>
@@ -945,6 +959,9 @@
     <t xml:space="preserve">Principal + positive financial returns</t>
   </si>
   <si>
+    <t xml:space="preserve">Equity</t>
+  </si>
+  <si>
     <t xml:space="preserve">0-100</t>
   </si>
   <si>
@@ -952,6 +969,9 @@
   </si>
   <si>
     <t xml:space="preserve">Not publicly available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combination</t>
   </si>
   <si>
     <t xml:space="preserve">Investment Commitment</t>
@@ -1610,7 +1630,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:F83"/>
+  <dimension ref="A2:F86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2432,6 +2452,27 @@
     <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F83" s="7" t="s">
         <v>163</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F84" s="7"/>
+    </row>
+    <row r="85" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B85" s="5"/>
+      <c r="C85" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B86" s="5"/>
+      <c r="C86" s="6" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2477,22 +2518,22 @@
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I3" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I4" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I5" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I6" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2500,10 +2541,10 @@
         <v>149</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2511,10 +2552,10 @@
         <v>150</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2529,44 +2570,44 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>50</v>
@@ -2577,43 +2618,43 @@
     </row>
     <row r="11" customFormat="false" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3079,18 +3120,18 @@
   <sheetData>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3106,47 +3147,47 @@
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>50</v>
@@ -3166,10 +3207,10 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="12" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="L9" s="12"/>
       <c r="M9" s="3"/>
@@ -3177,46 +3218,46 @@
     </row>
     <row r="10" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3701,17 +3742,17 @@
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>50</v>
@@ -3722,16 +3763,16 @@
     </row>
     <row r="4" customFormat="false" ht="100.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3935,17 +3976,17 @@
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>50</v>
@@ -3956,16 +3997,16 @@
     </row>
     <row r="4" customFormat="false" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4183,32 +4224,32 @@
       <c r="E2" s="12"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>50</v>
@@ -4223,7 +4264,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="12" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="12"/>
@@ -4232,31 +4273,31 @@
     </row>
     <row r="5" customFormat="false" ht="100.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4609,45 +4650,45 @@
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="12"/>
       <c r="B2" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>50</v>
@@ -4658,34 +4699,34 @@
     </row>
     <row r="4" customFormat="false" ht="129.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5065,51 +5106,51 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5117,7 +5158,7 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -5127,31 +5168,31 @@
     </row>
     <row r="8" customFormat="false" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="15" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5491,19 +5532,19 @@
   <sheetData>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -5512,63 +5553,63 @@
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="12"/>
       <c r="B8" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>150</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="114.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="14" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5951,22 +5992,22 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5980,56 +6021,56 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>108</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>50</v>
@@ -6040,43 +6081,43 @@
     </row>
     <row r="9" customFormat="false" ht="114.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6521,176 +6562,195 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:N39"/>
+  <dimension ref="A2:P39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="28.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.94"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="23.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.94"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>266</v>
+      <c r="F8" s="7" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="12"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>269</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3" t="s">
-        <v>267</v>
-      </c>
+      <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3" t="s">
-        <v>164</v>
+        <v>270</v>
       </c>
       <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N9" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>268</v>
+        <v>246</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>271</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>171</v>
+      <c r="L10" s="3" t="s">
+        <v>249</v>
       </c>
       <c r="M10" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="O10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="143.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="14" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>286</v>
+        <v>287</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>288</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6705,9 +6765,11 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="14"/>
+      <c r="L12" s="6"/>
       <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="14"/>
@@ -6721,9 +6783,11 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="14"/>
+      <c r="L13" s="6"/>
       <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="14"/>
@@ -6737,9 +6801,11 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="14"/>
+      <c r="L14" s="6"/>
       <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="14"/>
@@ -6753,9 +6819,11 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="14"/>
+      <c r="L15" s="6"/>
       <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="14"/>
@@ -6769,9 +6837,11 @@
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="14"/>
+      <c r="L16" s="6"/>
       <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="14"/>
@@ -6785,9 +6855,11 @@
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
-      <c r="L17" s="14"/>
+      <c r="L17" s="6"/>
       <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="14"/>
@@ -6801,9 +6873,11 @@
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
-      <c r="L18" s="14"/>
+      <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="14"/>
@@ -6817,9 +6891,11 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="14"/>
+      <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="14"/>
@@ -6833,9 +6909,11 @@
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="14"/>
+      <c r="L20" s="6"/>
       <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="14"/>
@@ -6849,9 +6927,11 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="14"/>
+      <c r="L21" s="6"/>
       <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="14"/>
@@ -6865,9 +6945,11 @@
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
-      <c r="L22" s="14"/>
+      <c r="L22" s="6"/>
       <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="14"/>
@@ -6881,9 +6963,11 @@
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="14"/>
+      <c r="L23" s="6"/>
       <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="14"/>
@@ -6897,9 +6981,11 @@
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
-      <c r="L24" s="14"/>
+      <c r="L24" s="6"/>
       <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="14"/>
@@ -6913,9 +6999,11 @@
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
-      <c r="L25" s="14"/>
+      <c r="L25" s="6"/>
       <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="14"/>
@@ -6929,9 +7017,11 @@
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
-      <c r="L26" s="14"/>
+      <c r="L26" s="6"/>
       <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="14"/>
@@ -6945,9 +7035,11 @@
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
-      <c r="L27" s="14"/>
+      <c r="L27" s="6"/>
       <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="14"/>
@@ -6961,9 +7053,11 @@
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
-      <c r="L28" s="14"/>
+      <c r="L28" s="6"/>
       <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="14"/>
@@ -6977,9 +7071,11 @@
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
-      <c r="L29" s="14"/>
+      <c r="L29" s="6"/>
       <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="14"/>
@@ -6993,9 +7089,11 @@
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
-      <c r="L30" s="14"/>
+      <c r="L30" s="6"/>
       <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="14"/>
@@ -7009,9 +7107,11 @@
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
-      <c r="L31" s="14"/>
+      <c r="L31" s="6"/>
       <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="14"/>
@@ -7025,9 +7125,11 @@
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
-      <c r="L32" s="14"/>
+      <c r="L32" s="6"/>
       <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="14"/>
@@ -7041,9 +7143,11 @@
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
-      <c r="L33" s="14"/>
+      <c r="L33" s="6"/>
       <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="14"/>
@@ -7057,9 +7161,11 @@
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
-      <c r="L34" s="14"/>
+      <c r="L34" s="6"/>
       <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="14"/>
@@ -7073,9 +7179,11 @@
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
-      <c r="L35" s="14"/>
+      <c r="L35" s="6"/>
       <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="14"/>
@@ -7089,9 +7197,11 @@
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
-      <c r="L36" s="14"/>
+      <c r="L36" s="6"/>
       <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="14"/>
@@ -7105,9 +7215,11 @@
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
-      <c r="L37" s="14"/>
+      <c r="L37" s="6"/>
       <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="14"/>
@@ -7121,9 +7233,11 @@
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
-      <c r="L38" s="14"/>
+      <c r="L38" s="6"/>
       <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="14"/>
@@ -7137,15 +7251,18 @@
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
-      <c r="L39" s="14"/>
+      <c r="L39" s="6"/>
       <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:N9"/>
+  <mergeCells count="4">
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:P9"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -7165,7 +7282,7 @@
   <dimension ref="A3:R46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7187,77 +7304,83 @@
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7265,13 +7388,16 @@
         <v>150</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7279,7 +7405,7 @@
       <c r="B16" s="12"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -7288,68 +7414,68 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="O16" s="3"/>
       <c r="P16" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="N17" s="16" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>50</v>
@@ -7360,58 +7486,58 @@
     </row>
     <row r="18" customFormat="false" ht="114.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="P18" s="14" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8015,42 +8141,42 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8063,23 +8189,23 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>50</v>
@@ -8090,22 +8216,22 @@
     </row>
     <row r="13" customFormat="false" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="14" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/indigo/spreadsheetform_guides/project.xlsx
+++ b/indigo/spreadsheetform_guides/project.xlsx
@@ -1187,10 +1187,10 @@
     <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_metrics:target_population/value</t>
   </si>
   <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_metrics:targeted_number_of_service_users _or_beneficiaries_total/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_metrics:unit_type_of_targeted _service_users_or_beneficiaries/value</t>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_metrics:targeted_number_of_service_users_or_beneficiaries_total/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_metrics:unit_type_of_targeted_service_users_or_beneficiaries/value</t>
   </si>
   <si>
     <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_metrics:unit_description_of_service_user_or_beneficiaries/value</t>

--- a/indigo/spreadsheetform_guides/project.xlsx
+++ b/indigo/spreadsheetform_guides/project.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="428">
   <si>
     <t xml:space="preserve">Indigo Project ID</t>
   </si>
@@ -716,6 +716,9 @@
   </si>
   <si>
     <t xml:space="preserve">SPREADSHEETFORM:DOWN:organisations:id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:organisations:name/value</t>
   </si>
   <si>
     <t xml:space="preserve">SPREADSHEETFORM:DOWN:organisations:org-ids/company/value</t>
@@ -1381,7 +1384,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1403,7 +1406,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF2E75B6"/>
-        <bgColor rgb="FF0066CC"/>
+        <bgColor rgb="FF0066B3"/>
       </patternFill>
     </fill>
     <fill>
@@ -1440,6 +1443,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC2E0AE"/>
         <bgColor rgb="FFE0EFD4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0066B3"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
   </fills>
@@ -1484,7 +1493,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1549,6 +1558,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1586,7 +1599,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FF0066B3"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -2518,22 +2531,22 @@
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I3" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I4" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I5" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I6" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2541,10 +2554,10 @@
         <v>149</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2552,10 +2565,10 @@
         <v>150</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2577,34 +2590,34 @@
     </row>
     <row r="10" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="C10" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="C10" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="D10" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="E10" s="17" t="s">
         <v>372</v>
       </c>
+      <c r="F10" s="17" t="s">
+        <v>373</v>
+      </c>
       <c r="G10" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="H10" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="H10" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="I10" s="17" t="s">
         <v>376</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>377</v>
       </c>
       <c r="K10" s="12" t="s">
         <v>173</v>
@@ -2618,43 +2631,43 @@
     </row>
     <row r="11" customFormat="false" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3120,18 +3133,18 @@
   <sheetData>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3154,37 +3167,37 @@
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="G8" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="G8" s="17" t="s">
         <v>397</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="H8" s="17" t="s">
         <v>398</v>
       </c>
+      <c r="I8" s="17" t="s">
+        <v>399</v>
+      </c>
       <c r="J8" s="12" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L8" s="12" t="s">
         <v>173</v>
@@ -3207,10 +3220,10 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="12" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L9" s="12"/>
       <c r="M9" s="3"/>
@@ -3218,46 +3231,46 @@
     </row>
     <row r="10" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3749,7 +3762,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>173</v>
@@ -3763,16 +3776,16 @@
     </row>
     <row r="4" customFormat="false" ht="100.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3983,7 +3996,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>173</v>
@@ -3997,16 +4010,16 @@
     </row>
     <row r="4" customFormat="false" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5519,10 +5532,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A7:J37"/>
+  <dimension ref="A7:K37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5534,49 +5547,53 @@
       <c r="A7" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="12"/>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>172</v>
       </c>
     </row>
@@ -5610,6 +5627,9 @@
       </c>
       <c r="J9" s="6" t="s">
         <v>236</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5623,6 +5643,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="14"/>
@@ -5635,6 +5656,7 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14"/>
@@ -5647,6 +5669,7 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="14"/>
@@ -5659,6 +5682,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="14"/>
@@ -5671,6 +5695,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="14"/>
@@ -5683,6 +5708,7 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="14"/>
@@ -5695,6 +5721,7 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="14"/>
@@ -5707,6 +5734,7 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="14"/>
@@ -5719,6 +5747,7 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="14"/>
@@ -5731,6 +5760,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="14"/>
@@ -5743,6 +5773,7 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="14"/>
@@ -5755,6 +5786,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="14"/>
@@ -5767,6 +5799,7 @@
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="14"/>
@@ -5779,6 +5812,7 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="14"/>
@@ -5791,6 +5825,7 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="14"/>
@@ -5803,6 +5838,7 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="14"/>
@@ -5815,6 +5851,7 @@
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="14"/>
@@ -5827,6 +5864,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="14"/>
@@ -5839,6 +5877,7 @@
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="14"/>
@@ -5851,6 +5890,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="14"/>
@@ -5863,6 +5903,7 @@
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="14"/>
@@ -5875,6 +5916,7 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="14"/>
@@ -5887,6 +5929,7 @@
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="14"/>
@@ -5899,6 +5942,7 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="14"/>
@@ -5911,6 +5955,7 @@
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="14"/>
@@ -5923,6 +5968,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="14"/>
@@ -5935,6 +5981,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="14"/>
@@ -5947,12 +5994,13 @@
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:K7"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -5992,22 +6040,22 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6021,15 +6069,15 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
@@ -6040,34 +6088,34 @@
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="C8" s="16" t="s">
         <v>246</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>247</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>108</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>247</v>
-      </c>
       <c r="H8" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>173</v>
@@ -6081,43 +6129,43 @@
     </row>
     <row r="9" customFormat="false" ht="114.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6588,35 +6636,35 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6624,14 +6672,14 @@
         <v>150</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="12"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -6644,7 +6692,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3" t="s">
@@ -6655,43 +6703,43 @@
     </row>
     <row r="10" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="B10" s="16" t="s">
         <v>246</v>
       </c>
+      <c r="B10" s="17" t="s">
+        <v>247</v>
+      </c>
       <c r="C10" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>273</v>
-      </c>
       <c r="L10" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N10" s="12" t="s">
         <v>173</v>
@@ -6705,52 +6753,52 @@
     </row>
     <row r="11" customFormat="false" ht="143.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="14" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7304,83 +7352,83 @@
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7388,16 +7436,16 @@
         <v>150</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7405,7 +7453,7 @@
       <c r="B16" s="12"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -7414,12 +7462,12 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O16" s="3"/>
       <c r="P16" s="3" t="s">
@@ -7430,49 +7478,49 @@
     </row>
     <row r="17" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="C17" s="16" t="s">
         <v>246</v>
       </c>
+      <c r="C17" s="17" t="s">
+        <v>247</v>
+      </c>
       <c r="D17" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="L17" s="16" t="s">
         <v>323</v>
       </c>
+      <c r="L17" s="17" t="s">
+        <v>324</v>
+      </c>
       <c r="M17" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="N17" s="16" t="s">
         <v>325</v>
       </c>
+      <c r="N17" s="17" t="s">
+        <v>326</v>
+      </c>
       <c r="O17" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P17" s="12" t="s">
         <v>173</v>
@@ -7486,58 +7534,58 @@
     </row>
     <row r="18" customFormat="false" ht="114.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P18" s="14" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8141,42 +8189,42 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8196,13 +8244,13 @@
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="B12" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>353</v>
+      <c r="B12" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>354</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>173</v>
@@ -8216,22 +8264,22 @@
     </row>
     <row r="13" customFormat="false" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="14" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/indigo/spreadsheetform_guides/project.xlsx
+++ b/indigo/spreadsheetform_guides/project.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="355">
   <si>
     <t xml:space="preserve">Indigo Project ID</t>
   </si>
@@ -49,18 +49,6 @@
     <t xml:space="preserve">SPREADSHEETFORM:SINGLE:status</t>
   </si>
   <si>
-    <t xml:space="preserve">Select</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUBLIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRIVATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DISPUTED</t>
-  </si>
-  <si>
     <t xml:space="preserve">Value</t>
   </si>
   <si>
@@ -97,24 +85,6 @@
     <t xml:space="preserve">SPREADSHEETFORM:SINGLE:stage_development/status</t>
   </si>
   <si>
-    <t xml:space="preserve">Early-stage design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Late-stage design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contracted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Service delivery complete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complete</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dates (YYYY-MM)</t>
   </si>
   <si>
@@ -376,30 +346,6 @@
     <t xml:space="preserve">SPREADSHEETFORM:SINGLE:purpose_and_classifications/policy_sector/status</t>
   </si>
   <si>
-    <t xml:space="preserve">Employment and training</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Child and family welfare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homelessness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criminal justice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agriculture and environment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poverty reduction</t>
-  </si>
-  <si>
     <t xml:space="preserve">Primary SDG goal</t>
   </si>
   <si>
@@ -481,237 +427,213 @@
     <t xml:space="preserve">SPREADSHEETFORM:SINGLE:service_and_beneficiaries/unit_type_targeted_service_users_or_beneficiaries/status</t>
   </si>
   <si>
-    <t xml:space="preserve">Individual</t>
+    <t xml:space="preserve">Unit description of service user or beneficiaries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:service_and_beneficiaries/unit_description_of_service_user_or_beneficiaries/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:service_and_beneficiaries/unit_description_of_service_user_or_beneficiaries/status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:service_and_beneficiaries/source_ids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:service_and_beneficiaries/notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changes to project due to COVID-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:changes_to_project_due_to_covid19/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:changes_to_project_due_to_covid19/source_ids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:changes_to_project_due_to_covid19/status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:notes/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:notes/status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier Scheme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organisations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(ids, comma seperated)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:fund/name/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:fund/identifier_scheme/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:fund/identifier/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:fund/organisation_ids/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:fund/country/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:source_ids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adminstrative geography</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service Provision ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:delivery_locations:service_provision_id/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:delivery_locations:location_name/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:delivery_locations:location_postcode/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:delivery_locations:location_country/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:delivery_locations:adminstrative_geography_name/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:delivery_locations:adminstrative_geography_code_type/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:delivery_locations:adminstrative_geography_code/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:delivery_locations:source_ids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:delivery_locations:notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:delivery_locations:status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publishing Organisations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archive URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publication Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accessed Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:sources:id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:sources:name/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:sources:type/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:sources:publishing_organisation_ids/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:sources:url/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:sources:archive_url/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:sources:internal_url/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:sources:publication_date/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:sources:accessed_date/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORG-ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charity</t>
   </si>
   <si>
     <t xml:space="preserve">Other</t>
   </si>
   <si>
-    <t xml:space="preserve">Unit description of service user or beneficiaries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:service_and_beneficiaries/unit_description_of_service_user_or_beneficiaries/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:service_and_beneficiaries/unit_description_of_service_user_or_beneficiaries/status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:service_and_beneficiaries/source_ids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:service_and_beneficiaries/notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Changes to project due to COVID-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:changes_to_project_due_to_covid19/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:changes_to_project_due_to_covid19/source_ids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:changes_to_project_due_to_covid19/status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pause project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Continue on outcomes contract without variations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Continue on outcomes contract with variations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switch to grant payments based on medium scenarios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:notes/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:SINGLE:notes/status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier Scheme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organisations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(ids, comma seperated)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:fund/name/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:fund/identifier_scheme/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:fund/identifier/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:fund/organisation_ids/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:fund/country/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:source_ids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adminstrative geography</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Service Provision ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:delivery_locations:service_provision_id/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:delivery_locations:location_name/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:delivery_locations:location_postcode/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:delivery_locations:location_country/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:delivery_locations:adminstrative_geography_name/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:delivery_locations:adminstrative_geography_code_type/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:delivery_locations:adminstrative_geography_code/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:delivery_locations:source_ids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:delivery_locations:notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:delivery_locations:status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contract</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Award notice</t>
+    <t xml:space="preserve">Email</t>
   </si>
   <si>
     <t xml:space="preserve">Website</t>
   </si>
   <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Publishing Organisations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Archive URL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internal URL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Publication Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accessed Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:sources:id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:sources:name/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:sources:type/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:sources:publishing_organisation_ids/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:sources:url/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:sources:archive_url/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:sources:internal_url/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:sources:publication_date/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:sources:accessed_date/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORG-ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Company</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email</t>
-  </si>
-  <si>
     <t xml:space="preserve">Address</t>
   </si>
   <si>
@@ -746,18 +668,6 @@
   </si>
   <si>
     <t xml:space="preserve">SPREADSHEETFORM:DOWN:organisations:country/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nonprofit/NGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foundation/Philanthropist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Government/Public Sector/Public Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For-profit</t>
   </si>
   <si>
     <t xml:space="preserve">Planned Service</t>
@@ -830,21 +740,6 @@
     <t xml:space="preserve">SPREADSHEETFORM:DOWN:service_provisions:status</t>
   </si>
   <si>
-    <t xml:space="preserve">Multilateral/Bilateral/Intergovernmental Financial Institution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corporate Giving</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Investment Fund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overall</t>
-  </si>
-  <si>
     <t xml:space="preserve">Maximum potential Outcome payment</t>
   </si>
   <si>
@@ -917,64 +812,7 @@
     <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_payment_commitments:status</t>
   </si>
   <si>
-    <t xml:space="preserve">Nonprofit/NGO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Government/Public Sector/Public Bank </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corporate Giving </t>
-  </si>
-  <si>
-    <t xml:space="preserve">High Net Worth Individual/Family Office/Private Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impact Investor </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commercial Bank </t>
-  </si>
-  <si>
-    <t xml:space="preserve">No repayment (no principle or return)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Community Development Financial Institution (CDFI)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Some repayment (but below value of principle)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insurance Company</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Principal repaid (but no net return)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IRR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Principal + positive financial returns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equity</t>
-  </si>
-  <si>
     <t xml:space="preserve">0-100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average annual return</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not publicly available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combination</t>
   </si>
   <si>
     <t xml:space="preserve">Investment Commitment</t>
@@ -1075,30 +913,6 @@
     <t xml:space="preserve">SPREADSHEETFORM:DOWN:investments:status</t>
   </si>
   <si>
-    <t xml:space="preserve">Impact bond design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Financial and commercial modeling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impact bond investment structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capital raise </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loan arranger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Performance management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legal counsel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technical assistance</t>
-  </si>
-  <si>
     <t xml:space="preserve">Other Role 
 Description</t>
   </si>
@@ -1119,30 +933,6 @@
   </si>
   <si>
     <t xml:space="preserve">SPREADSHEETFORM:DOWN:intermediary_services:status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quasi-experimental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Historical comparison</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre-post analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simple Ex-post verification </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Existing administrative data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New data collected</t>
   </si>
   <si>
     <t xml:space="preserve">Outcome
@@ -1218,15 +1008,6 @@
   </si>
   <si>
     <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_metrics:status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outcome level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Final</t>
   </si>
   <si>
     <t xml:space="preserve">Outcome Id</t>
@@ -1493,7 +1274,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1524,10 +1305,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1643,10 +1420,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:F86"/>
+  <dimension ref="A2:F67"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A65" activeCellId="0" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1680,818 +1457,733 @@
       <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="0" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="0" t="s">
+    <row r="7" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="0" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="0" t="s">
+    <row r="8" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="11" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
+      <c r="D11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="3"/>
       <c r="C14" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="7" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F15" s="7" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F16" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F17" s="7" t="s">
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F18" s="7" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F19" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="7"/>
+      <c r="C21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="58.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="C25" s="6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="3"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="58.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="C26" s="6" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="3"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="58.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="C27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="58.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="58.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="58.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="58.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="58.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="58.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="58.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="58.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="C38" s="6" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="58.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B40" s="3"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="58.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="C40" s="6" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>92</v>
+      </c>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+      <c r="D42" s="6"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B44" s="3"/>
-      <c r="C44" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>54</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="B46" s="3"/>
       <c r="C46" s="6" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3" t="s">
-        <v>96</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E46" s="7"/>
+    </row>
+    <row r="47" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" s="3"/>
       <c r="C47" s="6" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3" t="s">
-        <v>99</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="E47" s="7"/>
+    </row>
+    <row r="48" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" s="3"/>
       <c r="C48" s="6" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>106</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>109</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D50" s="6"/>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>113</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="B52" s="3"/>
-      <c r="C52" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C52" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D52" s="6"/>
+    </row>
+    <row r="53" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E54" s="7"/>
-    </row>
-    <row r="55" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>120</v>
+      </c>
+      <c r="D53" s="6"/>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B55" s="3"/>
-      <c r="C55" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3"/>
+      <c r="C55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="B56" s="3"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3"/>
+      <c r="C56" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="58.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="B57" s="3"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3"/>
+      <c r="C57" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="B58" s="3"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3"/>
+      <c r="C58" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E58" s="7"/>
+    </row>
+    <row r="59" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="B59" s="3"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3"/>
+      <c r="C59" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B60" s="3"/>
-      <c r="C60" s="6"/>
+      <c r="C60" s="6" t="s">
+        <v>134</v>
+      </c>
       <c r="D60" s="6"/>
-      <c r="E60" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3"/>
+    </row>
+    <row r="61" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="B61" s="3"/>
-      <c r="C61" s="6"/>
+      <c r="C61" s="6" t="s">
+        <v>135</v>
+      </c>
       <c r="D61" s="6"/>
-      <c r="E61" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="B63" s="3"/>
-      <c r="C63" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B64" s="3"/>
+      <c r="C63" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
       <c r="C64" s="6" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E64" s="0" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>138</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F64" s="7"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F65" s="7"/>
+    </row>
+    <row r="66" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B66" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="B66" s="5"/>
       <c r="C66" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B67" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="B67" s="5"/>
       <c r="C67" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D67" s="6"/>
-    </row>
-    <row r="68" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B68" s="3"/>
-      <c r="C68" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D68" s="6"/>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B71" s="3"/>
-      <c r="C71" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D71" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B72" s="3"/>
-      <c r="C72" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B73" s="3"/>
-      <c r="C73" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B75" s="3"/>
-      <c r="C75" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B76" s="3"/>
-      <c r="C76" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D76" s="6"/>
-    </row>
-    <row r="77" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D77" s="6"/>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F81" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F82" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F83" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F84" s="7"/>
-    </row>
-    <row r="85" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B85" s="5"/>
-      <c r="C85" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B86" s="5"/>
-      <c r="C86" s="6" t="s">
-        <v>165</v>
-      </c>
     </row>
   </sheetData>
+  <dataValidations count="14">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C4" type="list">
+      <formula1>"PUBLIC,PRIVATE,DISPUTED"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E11" type="list">
+      <formula1>"PUBLIC,PRIVATE,DISPUTED"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D14:D20" type="list">
+      <formula1>"PUBLIC,PRIVATE,DISPUTED"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D25:D40" type="list">
+      <formula1>"PUBLIC,PRIVATE,DISPUTED"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D45:D47" type="list">
+      <formula1>"PUBLIC,PRIVATE,DISPUTED"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D48:D51" type="list">
+      <formula1>"PUBLIC,PRIVATE,DISPUTED"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D56:D58" type="list">
+      <formula1>"PUBLIC,PRIVATE,DISPUTED"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D59" type="list">
+      <formula1>"PUBLIC,PRIVATE,DISPUTED"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E64" type="list">
+      <formula1>"PUBLIC,PRIVATE,DISPUTED"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C67" type="list">
+      <formula1>"PUBLIC,PRIVATE,DISPUTED"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C11" type="list">
+      <formula1>"Early-stage design,Late-stage design,Contracted,Implementation,Service delivery complete,Complete,"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C47" type="list">
+      <formula1>"Employment and training,Child and family welfare,Health,Homelessness,Education,Criminal justice,Agriculture and environment,Poverty reduction,"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C58" type="list">
+      <formula1>"Individual,Other,"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C64" type="list">
+      <formula1>"Pause project,Continue on outcomes contract without variations,Continue on outcomes contract with variations,Switch to grant payments based on medium scenarios,"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E63" r:id="rId1" display="https://github.com/datapopalliance/SDGs/blob/master/SDG-goals.csv "/>
-    <hyperlink ref="E65" r:id="rId2" display="https://github.com/datapopalliance/SDGs/blob/master/SDG-targets.csv"/>
+    <hyperlink ref="E48" r:id="rId1" display="https://github.com/datapopalliance/SDGs/blob/master/SDG-goals.csv "/>
+    <hyperlink ref="E50" r:id="rId2" display="https://github.com/datapopalliance/SDGs/blob/master/SDG-targets.csv"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2508,7 +2200,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:M39"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2529,149 +2221,217 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I3" s="7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I4" s="7" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I5" s="7" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I6" s="7" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E7" s="7" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="K3" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E8" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>368</v>
-      </c>
+      <c r="L3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="101.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>371</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>372</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>375</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>376</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>377</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>388</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>390</v>
-      </c>
+      <c r="A9" s="12"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -2681,12 +2441,12 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="14"/>
+      <c r="K12" s="13"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -2696,12 +2456,12 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="14"/>
+      <c r="K13" s="13"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -2711,12 +2471,12 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="14"/>
+      <c r="K14" s="13"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -2726,12 +2486,12 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="14"/>
+      <c r="K15" s="13"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -2741,12 +2501,12 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="14"/>
+      <c r="K16" s="13"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -2756,12 +2516,12 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="14"/>
+      <c r="K17" s="13"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -2771,12 +2531,12 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="14"/>
+      <c r="K18" s="13"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -2786,12 +2546,12 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="14"/>
+      <c r="K19" s="13"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -2801,12 +2561,12 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="14"/>
+      <c r="K20" s="13"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -2816,12 +2576,12 @@
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
-      <c r="K21" s="14"/>
+      <c r="K21" s="13"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -2831,12 +2591,12 @@
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
-      <c r="K22" s="14"/>
+      <c r="K22" s="13"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -2846,12 +2606,12 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="14"/>
+      <c r="K23" s="13"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -2861,12 +2621,12 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
-      <c r="K24" s="14"/>
+      <c r="K24" s="13"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -2876,12 +2636,12 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
-      <c r="K25" s="14"/>
+      <c r="K25" s="13"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -2891,12 +2651,12 @@
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
-      <c r="K26" s="14"/>
+      <c r="K26" s="13"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -2906,12 +2666,12 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
-      <c r="K27" s="14"/>
+      <c r="K27" s="13"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -2921,12 +2681,12 @@
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
-      <c r="K28" s="14"/>
+      <c r="K28" s="13"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -2936,12 +2696,12 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
-      <c r="K29" s="14"/>
+      <c r="K29" s="13"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -2951,12 +2711,12 @@
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
-      <c r="K30" s="14"/>
+      <c r="K30" s="13"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -2966,12 +2726,12 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
-      <c r="K31" s="14"/>
+      <c r="K31" s="13"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -2981,119 +2741,32 @@
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
-      <c r="K32" s="14"/>
+      <c r="K32" s="13"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K2:M2"/>
   </mergeCells>
+  <dataValidations count="4">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M4:M32" type="list">
+      <formula1>"PUBLIC,PRIVATE,DISPUTED"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4:E32" type="list">
+      <formula1>"Individual,Other,"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I4:I32" type="list">
+      <formula1>"RCT,Quasi-experimental,Historical comparison,Pre-post analysis,Simple Ex-post verification ,Not available,"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J4:J32" type="list">
+      <formula1>"Existing administrative data,New data collected,"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3109,10 +2782,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A5:N38"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3131,150 +2804,218 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>393</v>
-      </c>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="L4" s="11"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="72.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>398</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>399</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="A7" s="13"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>403</v>
-      </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>415</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>417</v>
-      </c>
+      <c r="A9" s="13"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -3283,14 +3024,14 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -3299,14 +3040,14 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -3315,14 +3056,14 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -3331,14 +3072,14 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -3347,14 +3088,14 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -3363,14 +3104,14 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -3379,14 +3120,14 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -3395,14 +3136,14 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -3411,14 +3152,14 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -3427,14 +3168,14 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -3443,14 +3184,14 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -3459,14 +3200,14 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -3475,14 +3216,14 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -3491,14 +3232,14 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -3507,14 +3248,14 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -3523,14 +3264,14 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="14"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -3539,14 +3280,14 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="14"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -3555,14 +3296,14 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -3571,14 +3312,14 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -3587,14 +3328,14 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="14"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -3603,14 +3344,14 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="14"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -3619,14 +3360,14 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -3635,96 +3376,30 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="14"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="14"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="14"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="14"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="14"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L2:N2"/>
   </mergeCells>
+  <dataValidations count="3">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N5:N33" type="list">
+      <formula1>"PUBLIC,PRIVATE,DISPUTED"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B5:B33" type="list">
+      <formula1>"Project level,Outcome level,"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C5:C33" type="list">
+      <formula1>"Interim,Final,"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3743,7 +3418,7 @@
   <dimension ref="A2:D32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3755,204 +3430,204 @@
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>173</v>
+        <v>345</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>149</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="100.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="101.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>420</v>
+        <v>346</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>347</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>421</v>
+        <v>348</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>422</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6"/>
-      <c r="B5" s="14"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
-      <c r="B6" s="14"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6"/>
-      <c r="B7" s="14"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6"/>
-      <c r="B8" s="14"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6"/>
-      <c r="B9" s="14"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6"/>
-      <c r="B10" s="14"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6"/>
-      <c r="B11" s="14"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6"/>
-      <c r="B12" s="14"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6"/>
-      <c r="B13" s="14"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6"/>
-      <c r="B14" s="14"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6"/>
-      <c r="B15" s="14"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6"/>
-      <c r="B16" s="14"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6"/>
-      <c r="B17" s="14"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6"/>
-      <c r="B18" s="14"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6"/>
-      <c r="B19" s="14"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6"/>
-      <c r="B20" s="14"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6"/>
-      <c r="B21" s="14"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6"/>
-      <c r="B22" s="14"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6"/>
-      <c r="B23" s="14"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6"/>
-      <c r="B24" s="14"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6"/>
-      <c r="B25" s="14"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6"/>
-      <c r="B26" s="14"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6"/>
-      <c r="B27" s="14"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6"/>
-      <c r="B28" s="14"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6"/>
-      <c r="B29" s="14"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6"/>
-      <c r="B30" s="14"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6"/>
-      <c r="B31" s="14"/>
+      <c r="B31" s="13"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6"/>
-      <c r="B32" s="14"/>
+      <c r="B32" s="13"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
     </row>
@@ -3960,6 +3635,12 @@
   <mergeCells count="1">
     <mergeCell ref="B2:D2"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D4:D32" type="list">
+      <formula1>"PUBLIC,PRIVATE,DISPUTED"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3978,7 +3659,7 @@
   <dimension ref="A2:D32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3989,204 +3670,204 @@
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>173</v>
+        <v>350</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>149</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>425</v>
+        <v>351</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>352</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>426</v>
+        <v>353</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>427</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6"/>
-      <c r="B5" s="14"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
-      <c r="B6" s="14"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6"/>
-      <c r="B7" s="14"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6"/>
-      <c r="B8" s="14"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6"/>
-      <c r="B9" s="14"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6"/>
-      <c r="B10" s="14"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6"/>
-      <c r="B11" s="14"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6"/>
-      <c r="B12" s="14"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6"/>
-      <c r="B13" s="14"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6"/>
-      <c r="B14" s="14"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6"/>
-      <c r="B15" s="14"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6"/>
-      <c r="B16" s="14"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6"/>
-      <c r="B17" s="14"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6"/>
-      <c r="B18" s="14"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6"/>
-      <c r="B19" s="14"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6"/>
-      <c r="B20" s="14"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6"/>
-      <c r="B21" s="14"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6"/>
-      <c r="B22" s="14"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6"/>
-      <c r="B23" s="14"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6"/>
-      <c r="B24" s="14"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6"/>
-      <c r="B25" s="14"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6"/>
-      <c r="B26" s="14"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6"/>
-      <c r="B27" s="14"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6"/>
-      <c r="B28" s="14"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6"/>
-      <c r="B29" s="14"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6"/>
-      <c r="B30" s="14"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6"/>
-      <c r="B31" s="14"/>
+      <c r="B31" s="13"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6"/>
-      <c r="B32" s="14"/>
+      <c r="B32" s="13"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
     </row>
@@ -4194,6 +3875,12 @@
   <mergeCells count="1">
     <mergeCell ref="B2:D2"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D4:D32" type="list">
+      <formula1>"PUBLIC,PRIVATE,DISPUTED"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4230,394 +3917,394 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11"/>
+      <c r="A2" s="10"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="12"/>
+      <c r="E2" s="11"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>167</v>
+      <c r="A3" s="10" t="s">
+        <v>143</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>171</v>
+        <v>146</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>147</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>173</v>
+        <v>148</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>149</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="12" t="s">
-        <v>174</v>
+      <c r="E4" s="11" t="s">
+        <v>150</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="12"/>
+      <c r="G4" s="11"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="100.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
-        <v>175</v>
+    <row r="5" customFormat="false" ht="101.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="s">
+        <v>151</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>179</v>
+        <v>154</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>155</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>181</v>
+        <v>156</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>157</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="14"/>
+      <c r="E6" s="13"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="14"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="14"/>
+      <c r="E7" s="13"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="14"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="14"/>
+      <c r="E8" s="13"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="14"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="14"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="14"/>
+      <c r="G9" s="13"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="14"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="14"/>
+      <c r="G10" s="13"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="14"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="14"/>
+      <c r="G11" s="13"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="14"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="14"/>
+      <c r="G12" s="13"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="14"/>
+      <c r="E13" s="13"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="14"/>
+      <c r="G13" s="13"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="14"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="14"/>
+      <c r="G14" s="13"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="14"/>
+      <c r="E15" s="13"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="14"/>
+      <c r="G15" s="13"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="14"/>
+      <c r="E16" s="13"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="14"/>
+      <c r="G16" s="13"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="14"/>
+      <c r="E17" s="13"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="14"/>
+      <c r="G17" s="13"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="14"/>
+      <c r="E18" s="13"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="14"/>
+      <c r="G18" s="13"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="14"/>
+      <c r="E19" s="13"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="14"/>
+      <c r="G19" s="13"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="14"/>
+      <c r="E20" s="13"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="14"/>
+      <c r="G20" s="13"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="14"/>
+      <c r="E21" s="13"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="14"/>
+      <c r="G21" s="13"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="14"/>
+      <c r="E22" s="13"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="14"/>
+      <c r="G22" s="13"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="14"/>
+      <c r="E23" s="13"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="14"/>
+      <c r="G23" s="13"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="14"/>
+      <c r="E24" s="13"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="14"/>
+      <c r="G24" s="13"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="14"/>
+      <c r="E25" s="13"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="14"/>
+      <c r="G25" s="13"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="14"/>
+      <c r="E26" s="13"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="14"/>
+      <c r="G26" s="13"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="14"/>
+      <c r="E27" s="13"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="14"/>
+      <c r="G27" s="13"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="14"/>
+      <c r="E28" s="13"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="14"/>
+      <c r="G28" s="13"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="14"/>
+      <c r="E29" s="13"/>
       <c r="F29" s="6"/>
-      <c r="G29" s="14"/>
+      <c r="G29" s="13"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="14"/>
+      <c r="E30" s="13"/>
       <c r="F30" s="6"/>
-      <c r="G30" s="14"/>
+      <c r="G30" s="13"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="14"/>
+      <c r="E31" s="13"/>
       <c r="F31" s="6"/>
-      <c r="G31" s="14"/>
+      <c r="G31" s="13"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="14"/>
+      <c r="E32" s="13"/>
       <c r="F32" s="6"/>
-      <c r="G32" s="14"/>
+      <c r="G32" s="13"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="14"/>
+      <c r="E33" s="13"/>
       <c r="F33" s="6"/>
-      <c r="G33" s="14"/>
+      <c r="G33" s="13"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
     </row>
@@ -4625,6 +4312,12 @@
   <mergeCells count="1">
     <mergeCell ref="G2:I2"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I5:I33" type="list">
+      <formula1>"PUBLIC,PRIVATE,DISPUTED"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4643,7 +4336,7 @@
   <dimension ref="A2:J32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4661,420 +4354,420 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12"/>
+      <c r="A2" s="11"/>
       <c r="B2" s="3" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
-        <v>186</v>
+      <c r="A3" s="11" t="s">
+        <v>162</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="129.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="H3" s="12" t="s">
+      <c r="H4" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="129.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>197</v>
-      </c>
       <c r="I4" s="6" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="14"/>
+      <c r="H5" s="13"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="14"/>
+      <c r="H6" s="13"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="14"/>
+      <c r="H7" s="13"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="14"/>
+      <c r="H8" s="13"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="14"/>
+      <c r="H9" s="13"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="14"/>
+      <c r="H10" s="13"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="14"/>
+      <c r="H11" s="13"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="14"/>
+      <c r="H12" s="13"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="14"/>
+      <c r="H13" s="13"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="14"/>
+      <c r="H14" s="13"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="14"/>
+      <c r="H15" s="13"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="14"/>
+      <c r="H16" s="13"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="14"/>
+      <c r="H17" s="13"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="14"/>
+      <c r="H18" s="13"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="14"/>
+      <c r="H19" s="13"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="14"/>
+      <c r="H20" s="13"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="14"/>
+      <c r="H21" s="13"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="14"/>
+      <c r="H22" s="13"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="14"/>
+      <c r="H23" s="13"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="14"/>
+      <c r="H24" s="13"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="14"/>
+      <c r="H25" s="13"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="14"/>
+      <c r="H26" s="13"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="14"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="14"/>
+      <c r="H27" s="13"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="14"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="14"/>
+      <c r="H28" s="13"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
-      <c r="H29" s="14"/>
+      <c r="H29" s="13"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
-      <c r="H30" s="14"/>
+      <c r="H30" s="13"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="14"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
-      <c r="H31" s="14"/>
+      <c r="H31" s="13"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="14"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="14"/>
+      <c r="H32" s="13"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
     </row>
@@ -5084,6 +4777,12 @@
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J4:J32" type="list">
+      <formula1>"PUBLIC,PRIVATE,DISPUTED"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5099,10 +4798,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:I36"/>
+  <dimension ref="A2:I32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5117,99 +4816,123 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="0" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="0" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="0" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="0" t="s">
-        <v>203</v>
-      </c>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>210</v>
-      </c>
+      <c r="A6" s="14"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>219</v>
-      </c>
+      <c r="A7" s="14"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="14"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -5220,7 +4943,7 @@
       <c r="I9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -5231,7 +4954,7 @@
       <c r="I10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -5242,7 +4965,7 @@
       <c r="I11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -5253,7 +4976,7 @@
       <c r="I12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -5264,7 +4987,7 @@
       <c r="I13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -5275,7 +4998,7 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -5286,7 +5009,7 @@
       <c r="I15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -5297,7 +5020,7 @@
       <c r="I16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -5308,7 +5031,7 @@
       <c r="I17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -5319,7 +5042,7 @@
       <c r="I18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -5330,7 +5053,7 @@
       <c r="I19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -5341,7 +5064,7 @@
       <c r="I20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -5352,7 +5075,7 @@
       <c r="I21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -5363,7 +5086,7 @@
       <c r="I22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -5374,7 +5097,7 @@
       <c r="I23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -5385,7 +5108,7 @@
       <c r="I24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -5396,7 +5119,7 @@
       <c r="I25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="15"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -5407,7 +5130,7 @@
       <c r="I26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="15"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -5418,7 +5141,7 @@
       <c r="I27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="15"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -5429,7 +5152,7 @@
       <c r="I28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -5440,7 +5163,7 @@
       <c r="I29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="15"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -5451,7 +5174,7 @@
       <c r="I30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="15"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -5462,7 +5185,7 @@
       <c r="I31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="15"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -5472,51 +5195,13 @@
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="15"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="15"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="15"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="15"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-    </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C4:C32" type="list">
+      <formula1>"Contract,Report,Award notice,Website,"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5532,10 +5217,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A7:K37"/>
+  <dimension ref="A2:K32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5543,97 +5228,162 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
   <sheetData>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11"/>
+      <c r="B3" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="114.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+    </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12"/>
-      <c r="B8" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="114.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>237</v>
-      </c>
+      <c r="A8" s="13"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -5646,7 +5396,7 @@
       <c r="K10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -5659,7 +5409,7 @@
       <c r="K11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -5672,7 +5422,7 @@
       <c r="K12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -5685,7 +5435,7 @@
       <c r="K13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -5698,7 +5448,7 @@
       <c r="K14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -5711,7 +5461,7 @@
       <c r="K15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -5724,7 +5474,7 @@
       <c r="K16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -5737,7 +5487,7 @@
       <c r="K17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -5750,7 +5500,7 @@
       <c r="K18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -5763,7 +5513,7 @@
       <c r="K19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -5776,7 +5526,7 @@
       <c r="K20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -5789,7 +5539,7 @@
       <c r="K21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -5802,7 +5552,7 @@
       <c r="K22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -5815,7 +5565,7 @@
       <c r="K23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -5828,7 +5578,7 @@
       <c r="K24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -5841,7 +5591,7 @@
       <c r="K25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -5854,7 +5604,7 @@
       <c r="K26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="14"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -5867,7 +5617,7 @@
       <c r="K27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="14"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -5880,7 +5630,7 @@
       <c r="K28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -5893,7 +5643,7 @@
       <c r="K29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -5906,7 +5656,7 @@
       <c r="K30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="14"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -5919,7 +5669,7 @@
       <c r="K31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="14"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -5931,76 +5681,11 @@
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="14"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="14"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="14"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="14"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:K2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -6017,10 +5702,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:M37"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6038,139 +5723,192 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="7" t="s">
-        <v>150</v>
-      </c>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="115.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="114.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>264</v>
-      </c>
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -6179,13 +5917,13 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="14"/>
+      <c r="K10" s="13"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -6194,13 +5932,13 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="14"/>
+      <c r="K11" s="13"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -6209,13 +5947,13 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="14"/>
+      <c r="K12" s="13"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -6224,13 +5962,13 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="14"/>
+      <c r="K13" s="13"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -6239,13 +5977,13 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="14"/>
+      <c r="K14" s="13"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -6254,13 +5992,13 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="14"/>
+      <c r="K15" s="13"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -6269,13 +6007,13 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="14"/>
+      <c r="K16" s="13"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -6284,13 +6022,13 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="14"/>
+      <c r="K17" s="13"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -6299,13 +6037,13 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="14"/>
+      <c r="K18" s="13"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -6314,13 +6052,13 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="14"/>
+      <c r="K19" s="13"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -6329,13 +6067,13 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="14"/>
+      <c r="K20" s="13"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -6344,13 +6082,13 @@
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
-      <c r="K21" s="14"/>
+      <c r="K21" s="13"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -6359,13 +6097,13 @@
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
-      <c r="K22" s="14"/>
+      <c r="K22" s="13"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -6374,13 +6112,13 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="14"/>
+      <c r="K23" s="13"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -6389,13 +6127,13 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
-      <c r="K24" s="14"/>
+      <c r="K24" s="13"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -6404,13 +6142,13 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
-      <c r="K25" s="14"/>
+      <c r="K25" s="13"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -6419,13 +6157,13 @@
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
-      <c r="K26" s="14"/>
+      <c r="K26" s="13"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -6434,13 +6172,13 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
-      <c r="K27" s="14"/>
+      <c r="K27" s="13"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -6449,13 +6187,13 @@
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
-      <c r="K28" s="14"/>
+      <c r="K28" s="13"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -6464,13 +6202,13 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
-      <c r="K29" s="14"/>
+      <c r="K29" s="13"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -6479,13 +6217,13 @@
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
-      <c r="K30" s="14"/>
+      <c r="K30" s="13"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -6494,13 +6232,13 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
-      <c r="K31" s="14"/>
+      <c r="K31" s="13"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -6509,92 +6247,27 @@
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
-      <c r="K32" s="14"/>
+      <c r="K32" s="13"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:M2"/>
   </mergeCells>
+  <dataValidations count="2">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M4:M32" type="list">
+      <formula1>"PUBLIC,PRIVATE,DISPUTED"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C4:C32" type="list">
+      <formula1>"Nonprofit/NGO,Foundation/Philanthropist,Government/Public Sector/Public Bank,For-profit,Other,"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -6610,10 +6283,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:P39"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6634,175 +6307,264 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="7" t="s">
+      <c r="E3" s="3" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="7" t="s">
+      <c r="F3" s="3" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>269</v>
-      </c>
+      <c r="G3" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="143.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="N11" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>293</v>
-      </c>
+      <c r="A9" s="13"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -6815,12 +6577,12 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
-      <c r="N12" s="14"/>
+      <c r="N12" s="13"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -6833,12 +6595,12 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
-      <c r="N13" s="14"/>
+      <c r="N13" s="13"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -6851,12 +6613,12 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
-      <c r="N14" s="14"/>
+      <c r="N14" s="13"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -6869,12 +6631,12 @@
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
-      <c r="N15" s="14"/>
+      <c r="N15" s="13"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -6887,12 +6649,12 @@
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
-      <c r="N16" s="14"/>
+      <c r="N16" s="13"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -6905,12 +6667,12 @@
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
-      <c r="N17" s="14"/>
+      <c r="N17" s="13"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -6923,12 +6685,12 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-      <c r="N18" s="14"/>
+      <c r="N18" s="13"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -6941,12 +6703,12 @@
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="14"/>
+      <c r="N19" s="13"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -6959,12 +6721,12 @@
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
-      <c r="N20" s="14"/>
+      <c r="N20" s="13"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -6977,12 +6739,12 @@
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
-      <c r="N21" s="14"/>
+      <c r="N21" s="13"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -6995,12 +6757,12 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
-      <c r="N22" s="14"/>
+      <c r="N22" s="13"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -7013,12 +6775,12 @@
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
-      <c r="N23" s="14"/>
+      <c r="N23" s="13"/>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -7031,12 +6793,12 @@
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
-      <c r="N24" s="14"/>
+      <c r="N24" s="13"/>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -7049,12 +6811,12 @@
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
-      <c r="N25" s="14"/>
+      <c r="N25" s="13"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -7067,12 +6829,12 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
-      <c r="N26" s="14"/>
+      <c r="N26" s="13"/>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="14"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -7085,12 +6847,12 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
-      <c r="N27" s="14"/>
+      <c r="N27" s="13"/>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="14"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -7103,12 +6865,12 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
-      <c r="N28" s="14"/>
+      <c r="N28" s="13"/>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -7121,12 +6883,12 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
-      <c r="N29" s="14"/>
+      <c r="N29" s="13"/>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -7139,12 +6901,12 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
-      <c r="N30" s="14"/>
+      <c r="N30" s="13"/>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="14"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -7157,12 +6919,12 @@
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
-      <c r="N31" s="14"/>
+      <c r="N31" s="13"/>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="14"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -7175,143 +6937,31 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
-      <c r="N32" s="14"/>
+      <c r="N32" s="13"/>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="14"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="14"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="14"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="14"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="14"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="14"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:P2"/>
   </mergeCells>
+  <dataValidations count="3">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P4:P32" type="list">
+      <formula1>"PUBLIC,PRIVATE,DISPUTED"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B4:B32" type="list">
+      <formula1>"Nonprofit/NGO,Foundation/Philanthropist,Government/Public Sector/Public Bank,Multilateral/Bilateral/Intergovernmental Financial Institution,Corporate Giving,Investment Fund,Other,"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F4:F32" type="list">
+      <formula1>"Interim,Overall,"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -7327,10 +6977,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:R46"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7350,247 +7000,424 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="7" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="7" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="7"/>
+      <c r="K2" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="7" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="7" t="s">
+      <c r="H4" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="7" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="7" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="K15" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="J4" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="115.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-    </row>
-    <row r="17" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="L17" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="N17" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="P17" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="114.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="O18" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="P18" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q18" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="R18" s="6" t="s">
-        <v>345</v>
-      </c>
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -7604,13 +7431,13 @@
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
-      <c r="P19" s="14"/>
+      <c r="P19" s="13"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -7624,13 +7451,13 @@
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
-      <c r="P20" s="14"/>
+      <c r="P20" s="13"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -7644,13 +7471,13 @@
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
-      <c r="P21" s="14"/>
+      <c r="P21" s="13"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -7664,13 +7491,13 @@
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
-      <c r="P22" s="14"/>
+      <c r="P22" s="13"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -7684,13 +7511,13 @@
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
-      <c r="P23" s="14"/>
+      <c r="P23" s="13"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -7704,13 +7531,13 @@
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
-      <c r="P24" s="14"/>
+      <c r="P24" s="13"/>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -7724,13 +7551,13 @@
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
-      <c r="P25" s="14"/>
+      <c r="P25" s="13"/>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -7744,13 +7571,13 @@
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
-      <c r="P26" s="14"/>
+      <c r="P26" s="13"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -7764,13 +7591,13 @@
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
-      <c r="P27" s="14"/>
+      <c r="P27" s="13"/>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -7784,13 +7611,13 @@
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
-      <c r="P28" s="14"/>
+      <c r="P28" s="13"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -7804,13 +7631,13 @@
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
-      <c r="P29" s="14"/>
+      <c r="P29" s="13"/>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -7824,13 +7651,13 @@
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
-      <c r="P30" s="14"/>
+      <c r="P30" s="13"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -7844,13 +7671,13 @@
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
-      <c r="P31" s="14"/>
+      <c r="P31" s="13"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -7864,13 +7691,13 @@
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
-      <c r="P32" s="14"/>
+      <c r="P32" s="13"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -7884,277 +7711,39 @@
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
-      <c r="P33" s="14"/>
+      <c r="P33" s="13"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="13"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="13"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="13"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="14"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="13"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="14"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:R3"/>
   </mergeCells>
+  <dataValidations count="5">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R5:R33" type="list">
+      <formula1>"PUBLIC,PRIVATE,DISPUTED"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C5:C33" type="list">
+      <formula1>"Nonprofit/NGO ,Foundation/Philanthropist,Government/Public Sector/Public Bank ,Multilateral/Bilateral/Intergovernmental Financial Institution,Corporate Giving ,Investment Fund,High Net Worth Individual/Family Office/Private Bank,Impact Investor ,Commercia"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L5:L33" type="list">
+      <formula1>"IRR,Average annual return,"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N5:N33" type="list">
+      <formula1>"No repayment (no principle or return),Some repayment (but below value of principle),Principal repaid (but no net return),Principal + positive financial returns,Not publicly available,"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O5:O33" type="list">
+      <formula1>"Debt,Equity,Combination,"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -8170,10 +7759,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:F41"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8187,329 +7776,297 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="7" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="7" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="7" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="7" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="7" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="7" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="7" t="s">
-        <v>150</v>
-      </c>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>354</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>360</v>
-      </c>
+      <c r="A11" s="13"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="14"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="14"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="14"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="14"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="14"/>
+      <c r="D18" s="13"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="14"/>
+      <c r="D19" s="13"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="14"/>
+      <c r="D20" s="13"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="14"/>
+      <c r="D21" s="13"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="14"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="14"/>
+      <c r="D23" s="13"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="14"/>
+      <c r="D24" s="13"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="14"/>
+      <c r="D25" s="13"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="14"/>
+      <c r="D26" s="13"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="14"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="14"/>
+      <c r="D27" s="13"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="14"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="14"/>
+      <c r="D28" s="13"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="14"/>
+      <c r="D29" s="13"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="14"/>
+      <c r="D30" s="13"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="14"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="14"/>
+      <c r="D31" s="13"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="14"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="14"/>
+      <c r="D32" s="13"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="14"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="14"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="14"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="14"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="14"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="14"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="14"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="14"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D2:F2"/>
   </mergeCells>
+  <dataValidations count="2">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F4:F32" type="list">
+      <formula1>"PUBLIC,PRIVATE,DISPUTED"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B4:B32" type="list">
+      <formula1>"Impact bond design,Financial and commercial modeling,Impact bond investment structure,Capital raise ,Loan arranger,Performance management,Legal counsel,Technical assistance,Other,"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/indigo/spreadsheetform_guides/project.xlsx
+++ b/indigo/spreadsheetform_guides/project.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="General Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -1010,7 +1010,8 @@
     <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_metrics:status</t>
   </si>
   <si>
-    <t xml:space="preserve">Outcome Id</t>
+    <t xml:space="preserve">Outcome 
+Metric Id</t>
   </si>
   <si>
     <t xml:space="preserve">Result level</t>
@@ -1043,7 +1044,7 @@
     <t xml:space="preserve">(source ids, comma seperated)</t>
   </si>
   <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:results:id</t>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:results:outcome_metric_id</t>
   </si>
   <si>
     <t xml:space="preserve">SPREADSHEETFORM:DOWN:results:result_level/value</t>
@@ -1274,7 +1275,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1340,6 +1341,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1422,7 +1427,7 @@
   </sheetPr>
   <dimension ref="A2:F67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A65" activeCellId="0" sqref="A65"/>
     </sheetView>
   </sheetViews>
@@ -2165,19 +2170,19 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C11" type="list">
-      <formula1>"Early-stage design,Late-stage design,Contracted,Implementation,Service delivery complete,Complete,"</formula1>
+      <formula1>"Early-stage design,Late-stage design,Contracted,Implementation,Service delivery complete,Complete"</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C47" type="list">
-      <formula1>"Employment and training,Child and family welfare,Health,Homelessness,Education,Criminal justice,Agriculture and environment,Poverty reduction,"</formula1>
+      <formula1>"Employment and training,Child and family welfare,Health,Homelessness,Education,Criminal justice,Agriculture and environment,Poverty reduction"</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C58" type="list">
-      <formula1>"Individual,Other,"</formula1>
+      <formula1>"Individual,Other"</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C64" type="list">
-      <formula1>"Pause project,Continue on outcomes contract without variations,Continue on outcomes contract with variations,Switch to grant payments based on medium scenarios,"</formula1>
+      <formula1>"Pause project,Continue on outcomes contract without variations,Continue on outcomes contract with variations,Switch to grant payments based on medium scenarios"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -2755,15 +2760,15 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4:E32" type="list">
-      <formula1>"Individual,Other,"</formula1>
+      <formula1>"Individual,Other"</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I4:I32" type="list">
-      <formula1>"RCT,Quasi-experimental,Historical comparison,Pre-post analysis,Simple Ex-post verification ,Not available,"</formula1>
+      <formula1>"RCT,Quasi-experimental,Historical comparison,Pre-post analysis,Simple Ex-post verification ,Not available"</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J4:J32" type="list">
-      <formula1>"Existing administrative data,New data collected,"</formula1>
+      <formula1>"Existing administrative data,New data collected"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -2784,7 +2789,7 @@
   </sheetPr>
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2827,7 +2832,7 @@
       <c r="N2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="17" t="s">
         <v>321</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2890,7 +2895,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="72.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="s">
         <v>331</v>
       </c>
@@ -3392,11 +3397,11 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B5:B33" type="list">
-      <formula1>"Project level,Outcome level,"</formula1>
+      <formula1>"Project level,Outcome level"</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C5:C33" type="list">
-      <formula1>"Interim,Final,"</formula1>
+      <formula1>"Interim,Final"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -5198,7 +5203,7 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C4:C32" type="list">
-      <formula1>"Contract,Report,Award notice,Website,"</formula1>
+      <formula1>"Contract,Report,Award notice,Website"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -6264,7 +6269,7 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C4:C32" type="list">
-      <formula1>"Nonprofit/NGO,Foundation/Philanthropist,Government/Public Sector/Public Bank,For-profit,Other,"</formula1>
+      <formula1>"Nonprofit/NGO,Foundation/Philanthropist,Government/Public Sector/Public Bank,For-profit,Other"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -6954,11 +6959,11 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B4:B32" type="list">
-      <formula1>"Nonprofit/NGO,Foundation/Philanthropist,Government/Public Sector/Public Bank,Multilateral/Bilateral/Intergovernmental Financial Institution,Corporate Giving,Investment Fund,Other,"</formula1>
+      <formula1>"Nonprofit/NGO,Foundation/Philanthropist,Government/Public Sector/Public Bank,Multilateral/Bilateral/Intergovernmental Financial Institution,Corporate Giving,Investment Fund,Other"</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F4:F32" type="list">
-      <formula1>"Interim,Overall,"</formula1>
+      <formula1>"Interim,Overall"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -7732,15 +7737,15 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L5:L33" type="list">
-      <formula1>"IRR,Average annual return,"</formula1>
+      <formula1>"IRR,Average annual return"</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N5:N33" type="list">
-      <formula1>"No repayment (no principle or return),Some repayment (but below value of principle),Principal repaid (but no net return),Principal + positive financial returns,Not publicly available,"</formula1>
+      <formula1>"No repayment (no principle or return),Some repayment (but below value of principle),Principal repaid (but no net return),Principal + positive financial returns,Not publicly available"</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O5:O33" type="list">
-      <formula1>"Debt,Equity,Combination,"</formula1>
+      <formula1>"Debt,Equity,Combination"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -8063,7 +8068,7 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B4:B32" type="list">
-      <formula1>"Impact bond design,Financial and commercial modeling,Impact bond investment structure,Capital raise ,Loan arranger,Performance management,Legal counsel,Technical assistance,Other,"</formula1>
+      <formula1>"Impact bond design,Financial and commercial modeling,Impact bond investment structure,Capital raise ,Loan arranger,Performance management,Legal counsel,Technical assistance,Other"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>

--- a/indigo/spreadsheetform_guides/project.xlsx
+++ b/indigo/spreadsheetform_guides/project.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="General Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -1044,7 +1044,7 @@
     <t xml:space="preserve">(source ids, comma seperated)</t>
   </si>
   <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:results:outcome_metric_id</t>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:results:outcome_metric_id/value</t>
   </si>
   <si>
     <t xml:space="preserve">SPREADSHEETFORM:DOWN:results:result_level/value</t>
@@ -1427,8 +1427,8 @@
   </sheetPr>
   <dimension ref="A2:F67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A65" activeCellId="0" sqref="A65"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2789,8 +2789,8 @@
   </sheetPr>
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/indigo/spreadsheetform_guides/project.xlsx
+++ b/indigo/spreadsheetform_guides/project.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="360">
   <si>
     <t xml:space="preserve">Indigo Project ID</t>
   </si>
@@ -517,6 +517,9 @@
     <t xml:space="preserve">Location</t>
   </si>
   <si>
+    <t xml:space="preserve">Lat/Lng</t>
+  </si>
+  <si>
     <t xml:space="preserve">Adminstrative geography</t>
   </si>
   <si>
@@ -526,6 +529,12 @@
     <t xml:space="preserve">Postcode</t>
   </si>
   <si>
+    <t xml:space="preserve">Lat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lng</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code Type</t>
   </si>
   <si>
@@ -542,6 +551,12 @@
   </si>
   <si>
     <t xml:space="preserve">SPREADSHEETFORM:DOWN:delivery_locations:location_country/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:delivery_locations:lat_lng/lat/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:delivery_locations:lat_lng/lng/value</t>
   </si>
   <si>
     <t xml:space="preserve">SPREADSHEETFORM:DOWN:delivery_locations:adminstrative_geography_name/value</t>
@@ -2250,34 +2265,34 @@
     </row>
     <row r="3" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>149</v>
@@ -2291,43 +2306,43 @@
     </row>
     <row r="4" customFormat="false" ht="101.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2833,37 +2848,37 @@
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="17" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="L3" s="11" t="s">
         <v>149</v>
@@ -2886,10 +2901,10 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="11" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="L4" s="11"/>
       <c r="M4" s="3"/>
@@ -2897,46 +2912,46 @@
     </row>
     <row r="5" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3442,7 +3457,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>149</v>
@@ -3456,16 +3471,16 @@
     </row>
     <row r="4" customFormat="false" ht="101.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3682,7 +3697,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>149</v>
@@ -3696,16 +3711,16 @@
     </row>
     <row r="4" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4338,7 +4353,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:J32"/>
+  <dimension ref="A2:L32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -4350,12 +4365,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="39.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="27.78"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="39.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="20.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="27.78"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4369,75 +4386,91 @@
         <v>161</v>
       </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>148</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="J3" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="129.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="129.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>173</v>
+        <v>175</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>176</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>175</v>
+        <v>177</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4448,9 +4481,11 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="13"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13"/>
@@ -4460,9 +4495,11 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="13"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="13"/>
@@ -4472,9 +4509,11 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="13"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13"/>
@@ -4484,9 +4523,11 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="13"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13"/>
@@ -4496,9 +4537,11 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="13"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13"/>
@@ -4508,9 +4551,11 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="13"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="13"/>
@@ -4520,9 +4565,11 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="13"/>
+      <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="13"/>
@@ -4532,9 +4579,11 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="13"/>
+      <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13"/>
@@ -4544,9 +4593,11 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="13"/>
+      <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13"/>
@@ -4556,9 +4607,11 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="13"/>
+      <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13"/>
@@ -4568,9 +4621,11 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="13"/>
+      <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13"/>
@@ -4580,9 +4635,11 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="13"/>
+      <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13"/>
@@ -4592,9 +4649,11 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="13"/>
+      <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13"/>
@@ -4604,9 +4663,11 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="13"/>
+      <c r="H18" s="6"/>
       <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="13"/>
@@ -4616,9 +4677,11 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="13"/>
+      <c r="H19" s="6"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="13"/>
@@ -4628,9 +4691,11 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="13"/>
+      <c r="H20" s="6"/>
       <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13"/>
@@ -4640,9 +4705,11 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="13"/>
+      <c r="H21" s="6"/>
       <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13"/>
@@ -4652,9 +4719,11 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="13"/>
+      <c r="H22" s="6"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13"/>
@@ -4664,9 +4733,11 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="13"/>
+      <c r="H23" s="6"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13"/>
@@ -4676,9 +4747,11 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="13"/>
+      <c r="H24" s="6"/>
       <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13"/>
@@ -4688,9 +4761,11 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="13"/>
+      <c r="H25" s="6"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="13"/>
@@ -4700,9 +4775,11 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="13"/>
+      <c r="H26" s="6"/>
       <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="13"/>
@@ -4712,9 +4789,11 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="13"/>
+      <c r="H27" s="6"/>
       <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="13"/>
@@ -4724,9 +4803,11 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="13"/>
+      <c r="H28" s="6"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="13"/>
@@ -4736,9 +4817,11 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
-      <c r="H29" s="13"/>
+      <c r="H29" s="6"/>
       <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="13"/>
@@ -4748,9 +4831,11 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
-      <c r="H30" s="13"/>
+      <c r="H30" s="6"/>
       <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="13"/>
@@ -4760,9 +4845,11 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
-      <c r="H31" s="13"/>
+      <c r="H31" s="6"/>
       <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="13"/>
@@ -4772,18 +4859,21 @@
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="13"/>
+      <c r="H32" s="6"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J4:J32" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L4:L32" type="list">
       <formula1>"PUBLIC,PRIVATE,DISPUTED"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4829,25 +4919,25 @@
         <v>144</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4865,31 +4955,31 @@
     </row>
     <row r="4" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5239,16 +5329,16 @@
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="3" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -5260,28 +5350,28 @@
         <v>144</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>144</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>148</v>
@@ -5289,37 +5379,37 @@
     </row>
     <row r="4" customFormat="false" ht="114.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5737,15 +5827,15 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3" t="s">
@@ -5756,34 +5846,34 @@
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>149</v>
@@ -5797,43 +5887,43 @@
     </row>
     <row r="4" customFormat="false" ht="115.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6320,7 +6410,7 @@
       <c r="A2" s="11"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -6333,7 +6423,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3" t="s">
@@ -6344,43 +6434,43 @@
     </row>
     <row r="3" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>237</v>
-      </c>
       <c r="J3" s="3" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="N3" s="11" t="s">
         <v>149</v>
@@ -6394,52 +6484,52 @@
     </row>
     <row r="4" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7014,7 +7104,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="7"/>
       <c r="K2" s="0" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="L2" s="7"/>
       <c r="N2" s="7"/>
@@ -7025,7 +7115,7 @@
       <c r="B3" s="11"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -7034,12 +7124,12 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="O3" s="3"/>
       <c r="P3" s="3" t="s">
@@ -7050,49 +7140,49 @@
     </row>
     <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="P4" s="11" t="s">
         <v>149</v>
@@ -7106,58 +7196,58 @@
     </row>
     <row r="5" customFormat="false" ht="115.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="P5" s="13" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7796,13 +7886,13 @@
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>149</v>
@@ -7816,22 +7906,22 @@
     </row>
     <row r="4" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/indigo/spreadsheetform_guides/project.xlsx
+++ b/indigo/spreadsheetform_guides/project.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="363">
   <si>
     <t xml:space="preserve">INDIGO Project ID</t>
   </si>
@@ -470,118 +470,121 @@
     <t xml:space="preserve">Meta</t>
   </si>
   <si>
+    <t xml:space="preserve">Fund ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier Scheme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organisations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(ids, comma seperated)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:fund/name/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:fund/identifier_scheme/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:fund/identifier/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:fund/organisation_ids/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:fund/country/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:source_ids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lat/Lng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adminstrative geography</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service Provision ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:delivery_locations:service_provision_id/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:delivery_locations:location_name/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:delivery_locations:location_postcode/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:delivery_locations:location_country/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:delivery_locations:lat_lng/lat/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:delivery_locations:lat_lng/lng/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:delivery_locations:adminstrative_geography_name/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:delivery_locations:adminstrative_geography_code_type/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:delivery_locations:adminstrative_geography_code/value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:delivery_locations:source_ids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:delivery_locations:notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:delivery_locations:status</t>
+  </si>
+  <si>
     <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier Scheme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organisations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(ids, comma seperated)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:fund/name/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:fund/identifier_scheme/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:fund/identifier/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:fund/organisation_ids/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:fund/country/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:source_ids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:outcome_funds:status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lat/Lng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adminstrative geography</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Service Provision ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:delivery_locations:service_provision_id/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:delivery_locations:location_name/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:delivery_locations:location_postcode/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:delivery_locations:location_country/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:delivery_locations:lat_lng/lat/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:delivery_locations:lat_lng/lng/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:delivery_locations:adminstrative_geography_name/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:delivery_locations:adminstrative_geography_code_type/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:delivery_locations:adminstrative_geography_code/value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:delivery_locations:source_ids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:delivery_locations:notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:delivery_locations:status</t>
   </si>
   <si>
     <t xml:space="preserve">Type</t>
@@ -1188,7 +1191,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1210,7 +1213,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF2E75B6"/>
-        <bgColor rgb="FF0066B3"/>
+        <bgColor rgb="FF0066CC"/>
       </patternFill>
     </fill>
     <fill>
@@ -1221,20 +1224,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF72BF44"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF58220"/>
         <bgColor rgb="FFFF8080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE0EFD4"/>
-        <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
     <fill>
@@ -1245,14 +1236,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF72BF44"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC2E0AE"/>
         <bgColor rgb="FFE0EFD4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0066B3"/>
-        <bgColor rgb="FF008080"/>
+        <fgColor rgb="FFE0EFD4"/>
+        <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
   </fills>
@@ -1342,15 +1339,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1358,15 +1363,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1403,7 +1400,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066B3"/>
+      <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -1455,7 +1452,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.43"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
@@ -1524,7 +1521,7 @@
       <c r="B1" s="8"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11"/>
+      <c r="A2" s="10"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
@@ -1534,16 +1531,16 @@
       <c r="F2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="B3" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>151</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1554,246 +1551,246 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
-        <v>300</v>
+      <c r="A4" s="11" t="s">
+        <v>301</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="D4" s="13" t="s">
         <v>303</v>
       </c>
+      <c r="D4" s="11" t="s">
+        <v>304</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="13"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="13"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="13"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="13"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="13"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="13"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="13"/>
+      <c r="D11" s="11"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="13"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="13"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="13"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="13"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="13"/>
+      <c r="D16" s="11"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="13"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="13"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="13"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="13"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="13"/>
+      <c r="D21" s="11"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="13"/>
+      <c r="D22" s="11"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="13"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
-      <c r="D24" s="13"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="13"/>
+      <c r="D25" s="11"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="13"/>
+      <c r="D26" s="11"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13"/>
+      <c r="A27" s="11"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="13"/>
+      <c r="D27" s="11"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="13"/>
+      <c r="D28" s="11"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="13"/>
+      <c r="D29" s="11"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="13"/>
+      <c r="D30" s="11"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
-      <c r="D31" s="13"/>
+      <c r="D31" s="11"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
-      <c r="D32" s="13"/>
+      <c r="D32" s="11"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
@@ -1853,7 +1850,7 @@
       <c r="J1" s="8"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10"/>
+      <c r="A2" s="13"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -1870,37 +1867,37 @@
       <c r="M2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="A3" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>310</v>
       </c>
+      <c r="F3" s="15" t="s">
+        <v>311</v>
+      </c>
       <c r="G3" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="H3" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="H3" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="I3" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="J3" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="K3" s="10" t="s">
         <v>151</v>
       </c>
       <c r="L3" s="4" t="s">
@@ -1911,48 +1908,48 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="101.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
-        <v>315</v>
+      <c r="A4" s="16" t="s">
+        <v>316</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="K4" s="13" t="s">
         <v>325</v>
       </c>
+      <c r="K4" s="11" t="s">
+        <v>326</v>
+      </c>
       <c r="L4" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -1962,12 +1959,12 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="13"/>
+      <c r="K5" s="11"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1977,12 +1974,12 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="13"/>
+      <c r="K6" s="11"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -1992,12 +1989,12 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="13"/>
+      <c r="K7" s="11"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -2007,12 +2004,12 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="13"/>
+      <c r="K8" s="11"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -2022,12 +2019,12 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="13"/>
+      <c r="K9" s="11"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -2037,12 +2034,12 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="13"/>
+      <c r="K10" s="11"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -2052,12 +2049,12 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="13"/>
+      <c r="K11" s="11"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2067,12 +2064,12 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="13"/>
+      <c r="K12" s="11"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -2082,12 +2079,12 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="13"/>
+      <c r="K13" s="11"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -2097,12 +2094,12 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="13"/>
+      <c r="K14" s="11"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -2112,12 +2109,12 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="13"/>
+      <c r="K15" s="11"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2127,12 +2124,12 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="13"/>
+      <c r="K16" s="11"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -2142,12 +2139,12 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="13"/>
+      <c r="K17" s="11"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -2157,12 +2154,12 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
-      <c r="K18" s="13"/>
+      <c r="K18" s="11"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -2172,12 +2169,12 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="13"/>
+      <c r="K19" s="11"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -2187,12 +2184,12 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
-      <c r="K20" s="13"/>
+      <c r="K20" s="11"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -2202,12 +2199,12 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
-      <c r="K21" s="13"/>
+      <c r="K21" s="11"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -2217,12 +2214,12 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="13"/>
+      <c r="K22" s="11"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -2232,12 +2229,12 @@
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
-      <c r="K23" s="13"/>
+      <c r="K23" s="11"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -2247,12 +2244,12 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
-      <c r="K24" s="13"/>
+      <c r="K24" s="11"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -2262,12 +2259,12 @@
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
-      <c r="K25" s="13"/>
+      <c r="K25" s="11"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -2277,12 +2274,12 @@
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="13"/>
+      <c r="K26" s="11"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -2292,12 +2289,12 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
-      <c r="K27" s="13"/>
+      <c r="K27" s="11"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -2307,12 +2304,12 @@
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
-      <c r="K28" s="13"/>
+      <c r="K28" s="11"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -2322,12 +2319,12 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
-      <c r="K29" s="13"/>
+      <c r="K29" s="11"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12"/>
+      <c r="A30" s="16"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -2337,12 +2334,12 @@
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
-      <c r="K30" s="13"/>
+      <c r="K30" s="11"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12"/>
+      <c r="A31" s="16"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -2352,12 +2349,12 @@
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
-      <c r="K31" s="13"/>
+      <c r="K31" s="11"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -2367,7 +2364,7 @@
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
-      <c r="K32" s="13"/>
+      <c r="K32" s="11"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
     </row>
@@ -2435,7 +2432,7 @@
       <c r="C1" s="8"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11"/>
+      <c r="A2" s="10"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -2444,8 +2441,8 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
       <c r="L2" s="4" t="s">
         <v>144</v>
       </c>
@@ -2454,39 +2451,39 @@
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="17" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="G3" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="H3" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="I3" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="K3" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="L3" s="10" t="s">
         <v>151</v>
       </c>
       <c r="M3" s="4" t="s">
@@ -2497,7 +2494,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -2506,62 +2503,62 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="K4" s="11" t="s">
+      <c r="J4" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="L4" s="11"/>
+      <c r="K4" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="L4" s="10"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
-        <v>338</v>
+      <c r="A5" s="11" t="s">
+        <v>339</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="J5" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="J5" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="K5" s="11" t="s">
         <v>349</v>
       </c>
+      <c r="L5" s="11" t="s">
+        <v>350</v>
+      </c>
       <c r="M5" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -2570,14 +2567,14 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -2586,14 +2583,14 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -2602,14 +2599,14 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -2618,14 +2615,14 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -2634,14 +2631,14 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -2650,14 +2647,14 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2666,14 +2663,14 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -2682,14 +2679,14 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -2698,14 +2695,14 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -2714,14 +2711,14 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2730,14 +2727,14 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -2746,14 +2743,14 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -2762,14 +2759,14 @@
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -2778,14 +2775,14 @@
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -2794,14 +2791,14 @@
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -2810,14 +2807,14 @@
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -2826,14 +2823,14 @@
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -2842,14 +2839,14 @@
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -2858,14 +2855,14 @@
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -2874,14 +2871,14 @@
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -2890,14 +2887,14 @@
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13"/>
+      <c r="A27" s="11"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -2906,14 +2903,14 @@
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -2922,14 +2919,14 @@
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -2938,14 +2935,14 @@
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -2954,14 +2951,14 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -2970,14 +2967,14 @@
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -2986,14 +2983,14 @@
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -3002,9 +2999,9 @@
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
     </row>
@@ -3063,9 +3060,9 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="B3" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>151</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -3077,183 +3074,183 @@
     </row>
     <row r="4" customFormat="false" ht="101.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="B4" s="13" t="s">
         <v>354</v>
       </c>
+      <c r="B4" s="11" t="s">
+        <v>355</v>
+      </c>
       <c r="C4" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7"/>
-      <c r="B5" s="13"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7"/>
-      <c r="B6" s="13"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7"/>
-      <c r="B7" s="13"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7"/>
-      <c r="B8" s="13"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7"/>
-      <c r="B9" s="13"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7"/>
-      <c r="B10" s="13"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7"/>
-      <c r="B11" s="13"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7"/>
-      <c r="B12" s="13"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7"/>
-      <c r="B13" s="13"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7"/>
-      <c r="B14" s="13"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7"/>
-      <c r="B15" s="13"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7"/>
-      <c r="B16" s="13"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7"/>
-      <c r="B17" s="13"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7"/>
-      <c r="B18" s="13"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7"/>
-      <c r="B19" s="13"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7"/>
-      <c r="B20" s="13"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7"/>
-      <c r="B21" s="13"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7"/>
-      <c r="B22" s="13"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7"/>
-      <c r="B23" s="13"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7"/>
-      <c r="B24" s="13"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7"/>
-      <c r="B25" s="13"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7"/>
-      <c r="B26" s="13"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7"/>
-      <c r="B27" s="13"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7"/>
-      <c r="B28" s="13"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7"/>
-      <c r="B29" s="13"/>
+      <c r="B29" s="11"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7"/>
-      <c r="B30" s="13"/>
+      <c r="B30" s="11"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7"/>
-      <c r="B31" s="13"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7"/>
-      <c r="B32" s="13"/>
+      <c r="B32" s="11"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
     </row>
@@ -3303,9 +3300,9 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="B3" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>151</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -3317,183 +3314,183 @@
     </row>
     <row r="4" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="B4" s="13" t="s">
         <v>359</v>
       </c>
+      <c r="B4" s="11" t="s">
+        <v>360</v>
+      </c>
       <c r="C4" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7"/>
-      <c r="B5" s="13"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7"/>
-      <c r="B6" s="13"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7"/>
-      <c r="B7" s="13"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7"/>
-      <c r="B8" s="13"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7"/>
-      <c r="B9" s="13"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7"/>
-      <c r="B10" s="13"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7"/>
-      <c r="B11" s="13"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7"/>
-      <c r="B12" s="13"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7"/>
-      <c r="B13" s="13"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7"/>
-      <c r="B14" s="13"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7"/>
-      <c r="B15" s="13"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7"/>
-      <c r="B16" s="13"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7"/>
-      <c r="B17" s="13"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7"/>
-      <c r="B18" s="13"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7"/>
-      <c r="B19" s="13"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7"/>
-      <c r="B20" s="13"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7"/>
-      <c r="B21" s="13"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7"/>
-      <c r="B22" s="13"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7"/>
-      <c r="B23" s="13"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7"/>
-      <c r="B24" s="13"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7"/>
-      <c r="B25" s="13"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7"/>
-      <c r="B26" s="13"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7"/>
-      <c r="B27" s="13"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7"/>
-      <c r="B28" s="13"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7"/>
-      <c r="B29" s="13"/>
+      <c r="B29" s="11"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7"/>
-      <c r="B30" s="13"/>
+      <c r="B30" s="11"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7"/>
-      <c r="B31" s="13"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7"/>
-      <c r="B32" s="13"/>
+      <c r="B32" s="11"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
     </row>
@@ -4312,11 +4309,11 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="4"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
       <c r="G2" s="4" t="s">
         <v>144</v>
       </c>
@@ -4327,22 +4324,22 @@
       <c r="A3" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>151</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -4354,37 +4351,37 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="11" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="11"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="10"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="101.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="11" t="s">
         <v>159</v>
       </c>
       <c r="H5" s="7" t="s">
@@ -4395,310 +4392,310 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="13"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="13"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="11"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="13"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="11"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="13"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="13"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="11"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="13"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="11"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="13"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="11"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="13"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="11"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="13"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="11"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="13"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="11"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="13"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="11"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="13"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="11"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="13"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="11"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="13"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="11"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="13"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="11"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="13"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="11"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="13"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="11"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="13"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="11"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="13"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="11"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="13"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="11"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="13"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="11"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="13"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="11"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="13"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="11"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="13"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="11"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="13"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="11"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="13"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="11"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="13"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="11"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="13"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="11"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
     </row>
@@ -4750,7 +4747,7 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11"/>
+      <c r="A2" s="10"/>
       <c r="B2" s="4" t="s">
         <v>162</v>
       </c>
@@ -4772,7 +4769,7 @@
       <c r="L2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>165</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -4799,7 +4796,7 @@
       <c r="I3" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>151</v>
       </c>
       <c r="K3" s="4" t="s">
@@ -4810,7 +4807,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="129.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>171</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -4837,7 +4834,7 @@
       <c r="I4" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="11" t="s">
         <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
@@ -4848,7 +4845,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -4857,12 +4854,12 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="13"/>
+      <c r="J5" s="11"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -4871,12 +4868,12 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="13"/>
+      <c r="J6" s="11"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -4885,12 +4882,12 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="13"/>
+      <c r="J7" s="11"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -4899,12 +4896,12 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="13"/>
+      <c r="J8" s="11"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -4913,12 +4910,12 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="13"/>
+      <c r="J9" s="11"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -4927,12 +4924,12 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="13"/>
+      <c r="J10" s="11"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -4941,12 +4938,12 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="13"/>
+      <c r="J11" s="11"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -4955,12 +4952,12 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="13"/>
+      <c r="J12" s="11"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -4969,12 +4966,12 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="13"/>
+      <c r="J13" s="11"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -4983,12 +4980,12 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="13"/>
+      <c r="J14" s="11"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -4997,12 +4994,12 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="13"/>
+      <c r="J15" s="11"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -5011,12 +5008,12 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="13"/>
+      <c r="J16" s="11"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -5025,12 +5022,12 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="13"/>
+      <c r="J17" s="11"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -5039,12 +5036,12 @@
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="13"/>
+      <c r="J18" s="11"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -5053,12 +5050,12 @@
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="13"/>
+      <c r="J19" s="11"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -5067,12 +5064,12 @@
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="13"/>
+      <c r="J20" s="11"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -5081,12 +5078,12 @@
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="13"/>
+      <c r="J21" s="11"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -5095,12 +5092,12 @@
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="13"/>
+      <c r="J22" s="11"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -5109,12 +5106,12 @@
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="13"/>
+      <c r="J23" s="11"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -5123,12 +5120,12 @@
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="13"/>
+      <c r="J24" s="11"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -5137,12 +5134,12 @@
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
-      <c r="J25" s="13"/>
+      <c r="J25" s="11"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -5151,12 +5148,12 @@
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="13"/>
+      <c r="J26" s="11"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13"/>
+      <c r="A27" s="11"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -5165,12 +5162,12 @@
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="13"/>
+      <c r="J27" s="11"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -5179,12 +5176,12 @@
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
-      <c r="J28" s="13"/>
+      <c r="J28" s="11"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -5193,12 +5190,12 @@
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="13"/>
+      <c r="J29" s="11"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -5207,12 +5204,12 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="13"/>
+      <c r="J30" s="11"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -5221,12 +5218,12 @@
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
-      <c r="J31" s="13"/>
+      <c r="J31" s="11"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -5235,7 +5232,7 @@
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
-      <c r="J32" s="13"/>
+      <c r="J32" s="11"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
     </row>
@@ -5286,36 +5283,36 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
-        <v>145</v>
+      <c r="A2" s="13" t="s">
+        <v>183</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>146</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
@@ -5329,31 +5326,31 @@
     </row>
     <row r="4" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5689,7 +5686,7 @@
   <dimension ref="A2:K32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="N11" activeCellId="0" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5698,457 +5695,457 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
+      <c r="A2" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11"/>
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="I3" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="1" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="114.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="G4" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="H4" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="I4" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="J4" s="12" t="s">
         <v>218</v>
       </c>
+      <c r="K4" s="12" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6196,20 +6193,20 @@
       <c r="C1" s="8"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4" t="s">
@@ -6219,37 +6216,37 @@
       <c r="M2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="10" t="s">
         <v>224</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>225</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>100</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>225</v>
-      </c>
       <c r="H3" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="K3" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="K3" s="10" t="s">
         <v>151</v>
       </c>
       <c r="L3" s="4" t="s">
@@ -6260,49 +6257,49 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="115.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="16" t="s">
         <v>230</v>
       </c>
+      <c r="B4" s="11" t="s">
+        <v>231</v>
+      </c>
       <c r="C4" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="K4" s="13" t="s">
         <v>239</v>
       </c>
+      <c r="K4" s="11" t="s">
+        <v>240</v>
+      </c>
       <c r="L4" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -6311,13 +6308,13 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="13"/>
+      <c r="K5" s="11"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -6326,13 +6323,13 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="13"/>
+      <c r="K6" s="11"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -6341,13 +6338,13 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="13"/>
+      <c r="K7" s="11"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -6356,13 +6353,13 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="13"/>
+      <c r="K8" s="11"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -6371,13 +6368,13 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="13"/>
+      <c r="K9" s="11"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -6386,13 +6383,13 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="13"/>
+      <c r="K10" s="11"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -6401,13 +6398,13 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="13"/>
+      <c r="K11" s="11"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -6416,13 +6413,13 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="13"/>
+      <c r="K12" s="11"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -6431,13 +6428,13 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="13"/>
+      <c r="K13" s="11"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -6446,13 +6443,13 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="13"/>
+      <c r="K14" s="11"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -6461,13 +6458,13 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="13"/>
+      <c r="K15" s="11"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -6476,13 +6473,13 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="13"/>
+      <c r="K16" s="11"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -6491,13 +6488,13 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="13"/>
+      <c r="K17" s="11"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -6506,13 +6503,13 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
-      <c r="K18" s="13"/>
+      <c r="K18" s="11"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -6521,13 +6518,13 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="13"/>
+      <c r="K19" s="11"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -6536,13 +6533,13 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
-      <c r="K20" s="13"/>
+      <c r="K20" s="11"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -6551,13 +6548,13 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
-      <c r="K21" s="13"/>
+      <c r="K21" s="11"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -6566,13 +6563,13 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="13"/>
+      <c r="K22" s="11"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -6581,13 +6578,13 @@
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
-      <c r="K23" s="13"/>
+      <c r="K23" s="11"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -6596,13 +6593,13 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
-      <c r="K24" s="13"/>
+      <c r="K24" s="11"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -6611,13 +6608,13 @@
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
-      <c r="K25" s="13"/>
+      <c r="K25" s="11"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -6626,13 +6623,13 @@
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="13"/>
+      <c r="K26" s="11"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -6641,13 +6638,13 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
-      <c r="K27" s="13"/>
+      <c r="K27" s="11"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12"/>
-      <c r="B28" s="13"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -6656,13 +6653,13 @@
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
-      <c r="K28" s="13"/>
+      <c r="K28" s="11"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="11"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -6671,13 +6668,13 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
-      <c r="K29" s="13"/>
+      <c r="K29" s="11"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="11"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -6686,13 +6683,13 @@
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
-      <c r="K30" s="13"/>
+      <c r="K30" s="11"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -6701,13 +6698,13 @@
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
-      <c r="K31" s="13"/>
+      <c r="K31" s="11"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="11"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -6716,7 +6713,7 @@
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
-      <c r="K32" s="13"/>
+      <c r="K32" s="11"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
     </row>
@@ -6781,10 +6778,10 @@
       <c r="F1" s="8"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11"/>
+      <c r="A2" s="10"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -6797,7 +6794,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4" t="s">
@@ -6807,46 +6804,46 @@
       <c r="P2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="10" t="s">
         <v>224</v>
       </c>
+      <c r="B3" s="15" t="s">
+        <v>225</v>
+      </c>
       <c r="C3" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>246</v>
-      </c>
       <c r="L3" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="N3" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="N3" s="10" t="s">
         <v>151</v>
       </c>
       <c r="O3" s="4" t="s">
@@ -6857,57 +6854,57 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
-        <v>250</v>
+      <c r="A4" s="11" t="s">
+        <v>251</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="N4" s="13" t="s">
         <v>263</v>
       </c>
+      <c r="N4" s="11" t="s">
+        <v>264</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -6920,12 +6917,12 @@
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="N5" s="13"/>
+      <c r="N5" s="11"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -6938,12 +6935,12 @@
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-      <c r="N6" s="13"/>
+      <c r="N6" s="11"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -6956,12 +6953,12 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="N7" s="13"/>
+      <c r="N7" s="11"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -6974,12 +6971,12 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="13"/>
+      <c r="N8" s="11"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -6992,12 +6989,12 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="13"/>
+      <c r="N9" s="11"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -7010,12 +7007,12 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="13"/>
+      <c r="N10" s="11"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -7028,12 +7025,12 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="13"/>
+      <c r="N11" s="11"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -7046,12 +7043,12 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="13"/>
+      <c r="N12" s="11"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -7064,12 +7061,12 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="N13" s="13"/>
+      <c r="N13" s="11"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -7082,12 +7079,12 @@
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="13"/>
+      <c r="N14" s="11"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -7100,12 +7097,12 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="N15" s="13"/>
+      <c r="N15" s="11"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -7118,12 +7115,12 @@
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="13"/>
+      <c r="N16" s="11"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -7136,12 +7133,12 @@
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="N17" s="13"/>
+      <c r="N17" s="11"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -7154,12 +7151,12 @@
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="13"/>
+      <c r="N18" s="11"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -7172,12 +7169,12 @@
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="N19" s="13"/>
+      <c r="N19" s="11"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -7190,12 +7187,12 @@
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="13"/>
+      <c r="N20" s="11"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -7208,12 +7205,12 @@
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="N21" s="13"/>
+      <c r="N21" s="11"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -7226,12 +7223,12 @@
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="13"/>
+      <c r="N22" s="11"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -7244,12 +7241,12 @@
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-      <c r="N23" s="13"/>
+      <c r="N23" s="11"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -7262,12 +7259,12 @@
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
-      <c r="N24" s="13"/>
+      <c r="N24" s="11"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -7280,12 +7277,12 @@
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="N25" s="13"/>
+      <c r="N25" s="11"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -7298,12 +7295,12 @@
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="13"/>
+      <c r="N26" s="11"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13"/>
+      <c r="A27" s="11"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -7316,12 +7313,12 @@
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
-      <c r="N27" s="13"/>
+      <c r="N27" s="11"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -7334,12 +7331,12 @@
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
-      <c r="N28" s="13"/>
+      <c r="N28" s="11"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -7352,12 +7349,12 @@
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
-      <c r="N29" s="13"/>
+      <c r="N29" s="11"/>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -7370,12 +7367,12 @@
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
-      <c r="N30" s="13"/>
+      <c r="N30" s="11"/>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -7388,12 +7385,12 @@
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
-      <c r="N31" s="13"/>
+      <c r="N31" s="11"/>
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -7406,7 +7403,7 @@
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
-      <c r="N32" s="13"/>
+      <c r="N32" s="11"/>
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
     </row>
@@ -7478,18 +7475,18 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="8"/>
       <c r="K2" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -7498,12 +7495,12 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4" t="s">
@@ -7513,52 +7510,52 @@
       <c r="R3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="10" t="s">
         <v>224</v>
       </c>
+      <c r="C4" s="15" t="s">
+        <v>225</v>
+      </c>
       <c r="D4" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="L4" s="16" t="s">
         <v>277</v>
       </c>
+      <c r="L4" s="15" t="s">
+        <v>278</v>
+      </c>
       <c r="M4" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="N4" s="16" t="s">
         <v>279</v>
       </c>
+      <c r="N4" s="15" t="s">
+        <v>280</v>
+      </c>
       <c r="O4" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="P4" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="P4" s="10" t="s">
         <v>151</v>
       </c>
       <c r="Q4" s="4" t="s">
@@ -7569,64 +7566,64 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="115.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="16" t="s">
         <v>282</v>
       </c>
+      <c r="B5" s="11" t="s">
+        <v>283</v>
+      </c>
       <c r="C5" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="P5" s="13" t="s">
         <v>296</v>
       </c>
+      <c r="P5" s="11" t="s">
+        <v>297</v>
+      </c>
       <c r="Q5" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -7640,13 +7637,13 @@
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="13"/>
+      <c r="P6" s="11"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -7660,13 +7657,13 @@
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="13"/>
+      <c r="P7" s="11"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -7680,13 +7677,13 @@
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="13"/>
+      <c r="P8" s="11"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -7700,13 +7697,13 @@
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
-      <c r="P9" s="13"/>
+      <c r="P9" s="11"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -7720,13 +7717,13 @@
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
-      <c r="P10" s="13"/>
+      <c r="P10" s="11"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -7740,13 +7737,13 @@
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
-      <c r="P11" s="13"/>
+      <c r="P11" s="11"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -7760,13 +7757,13 @@
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
-      <c r="P12" s="13"/>
+      <c r="P12" s="11"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -7780,13 +7777,13 @@
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="13"/>
+      <c r="P13" s="11"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -7800,13 +7797,13 @@
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="13"/>
+      <c r="P14" s="11"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -7820,13 +7817,13 @@
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
-      <c r="P15" s="13"/>
+      <c r="P15" s="11"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -7840,13 +7837,13 @@
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
-      <c r="P16" s="13"/>
+      <c r="P16" s="11"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -7860,13 +7857,13 @@
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="13"/>
+      <c r="P17" s="11"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -7880,13 +7877,13 @@
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="13"/>
+      <c r="P18" s="11"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -7900,13 +7897,13 @@
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="13"/>
+      <c r="P19" s="11"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -7920,13 +7917,13 @@
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="13"/>
+      <c r="P20" s="11"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -7940,13 +7937,13 @@
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="13"/>
+      <c r="P21" s="11"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -7960,13 +7957,13 @@
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="13"/>
+      <c r="P22" s="11"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -7980,13 +7977,13 @@
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="13"/>
+      <c r="P23" s="11"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -8000,13 +7997,13 @@
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="13"/>
+      <c r="P24" s="11"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -8020,13 +8017,13 @@
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="13"/>
+      <c r="P25" s="11"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -8040,13 +8037,13 @@
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="13"/>
+      <c r="P26" s="11"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -8060,13 +8057,13 @@
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="13"/>
+      <c r="P27" s="11"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12"/>
-      <c r="B28" s="13"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -8080,13 +8077,13 @@
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
-      <c r="P28" s="13"/>
+      <c r="P28" s="11"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="11"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -8100,13 +8097,13 @@
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
-      <c r="P29" s="13"/>
+      <c r="P29" s="11"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="11"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -8120,13 +8117,13 @@
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
-      <c r="P30" s="13"/>
+      <c r="P30" s="11"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -8140,13 +8137,13 @@
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
-      <c r="P31" s="13"/>
+      <c r="P31" s="11"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="11"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -8160,13 +8157,13 @@
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
-      <c r="P32" s="13"/>
+      <c r="P32" s="11"/>
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="11"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -8180,7 +8177,7 @@
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
-      <c r="P33" s="13"/>
+      <c r="P33" s="11"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
     </row>
